--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D254"/>
+  <dimension ref="A1:D251"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -411,7 +411,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>75489.75</v>
+        <v>74343.75</v>
       </c>
       <c r="D2">
         <v>2018</v>
@@ -425,7 +425,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>180862</v>
+        <v>106882</v>
       </c>
       <c r="D3">
         <v>2018</v>
@@ -439,7 +439,7 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>107828.15</v>
+        <v>82944.5</v>
       </c>
       <c r="D4">
         <v>2018</v>
@@ -453,7 +453,7 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>99858.92999999999</v>
+        <v>79805.75</v>
       </c>
       <c r="D5">
         <v>2018</v>
@@ -467,7 +467,7 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>105543.5</v>
+        <v>92135.5</v>
       </c>
       <c r="D6">
         <v>2018</v>
@@ -481,7 +481,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>130615</v>
+        <v>125828</v>
       </c>
       <c r="D7">
         <v>2018</v>
@@ -495,7 +495,7 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>70181.03999999999</v>
+        <v>68977.03999999999</v>
       </c>
       <c r="D8">
         <v>2019</v>
@@ -509,7 +509,7 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>55926.21</v>
+        <v>54846.21</v>
       </c>
       <c r="D9">
         <v>2019</v>
@@ -523,7 +523,7 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>58748</v>
+        <v>54958</v>
       </c>
       <c r="D10">
         <v>2019</v>
@@ -537,7 +537,7 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>69525</v>
+        <v>62793</v>
       </c>
       <c r="D11">
         <v>2019</v>
@@ -551,7 +551,7 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>58295.7</v>
+        <v>56618.7</v>
       </c>
       <c r="D12">
         <v>2019</v>
@@ -565,7 +565,7 @@
         <v>1</v>
       </c>
       <c r="C13">
-        <v>75018.60000000001</v>
+        <v>73560.60000000001</v>
       </c>
       <c r="D13">
         <v>2019</v>
@@ -579,7 +579,7 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>93510.3</v>
+        <v>91779.3</v>
       </c>
       <c r="D14">
         <v>2019</v>
@@ -593,7 +593,7 @@
         <v>2</v>
       </c>
       <c r="C15">
-        <v>9153.9</v>
+        <v>6873</v>
       </c>
       <c r="D15">
         <v>2019</v>
@@ -607,7 +607,7 @@
         <v>1</v>
       </c>
       <c r="C16">
-        <v>97125</v>
+        <v>81270.5</v>
       </c>
       <c r="D16">
         <v>2019</v>
@@ -621,7 +621,7 @@
         <v>2</v>
       </c>
       <c r="C17">
-        <v>98173.10000000001</v>
+        <v>96737.10000000001</v>
       </c>
       <c r="D17">
         <v>2019</v>
@@ -635,7 +635,7 @@
         <v>1</v>
       </c>
       <c r="C18">
-        <v>53833.59</v>
+        <v>44863.69</v>
       </c>
       <c r="D18">
         <v>2019</v>
@@ -649,7 +649,7 @@
         <v>2</v>
       </c>
       <c r="C19">
-        <v>91024.2</v>
+        <v>85978.3</v>
       </c>
       <c r="D19">
         <v>2019</v>
@@ -663,7 +663,7 @@
         <v>3</v>
       </c>
       <c r="C20">
-        <v>30983.9</v>
+        <v>27874.9</v>
       </c>
       <c r="D20">
         <v>2019</v>
@@ -677,7 +677,7 @@
         <v>1</v>
       </c>
       <c r="C21">
-        <v>98431.33</v>
+        <v>83694.92999999999</v>
       </c>
       <c r="D21">
         <v>2019</v>
@@ -691,7 +691,7 @@
         <v>2</v>
       </c>
       <c r="C22">
-        <v>100326.9</v>
+        <v>97624.89999999999</v>
       </c>
       <c r="D22">
         <v>2019</v>
@@ -705,7 +705,7 @@
         <v>3</v>
       </c>
       <c r="C23">
-        <v>100354</v>
+        <v>93646.60000000001</v>
       </c>
       <c r="D23">
         <v>2019</v>
@@ -719,7 +719,7 @@
         <v>1</v>
       </c>
       <c r="C24">
-        <v>89174.14999999999</v>
+        <v>62498.06</v>
       </c>
       <c r="D24">
         <v>2019</v>
@@ -733,7 +733,7 @@
         <v>2</v>
       </c>
       <c r="C25">
-        <v>99176.39999999999</v>
+        <v>94177.5</v>
       </c>
       <c r="D25">
         <v>2019</v>
@@ -747,7 +747,7 @@
         <v>3</v>
       </c>
       <c r="C26">
-        <v>71468.48</v>
+        <v>68993.78</v>
       </c>
       <c r="D26">
         <v>2019</v>
@@ -761,7 +761,7 @@
         <v>1</v>
       </c>
       <c r="C27">
-        <v>109957.67</v>
+        <v>82542.17</v>
       </c>
       <c r="D27">
         <v>2019</v>
@@ -775,7 +775,7 @@
         <v>2</v>
       </c>
       <c r="C28">
-        <v>120875.05</v>
+        <v>106761.25</v>
       </c>
       <c r="D28">
         <v>2019</v>
@@ -789,7 +789,7 @@
         <v>3</v>
       </c>
       <c r="C29">
-        <v>90454.56</v>
+        <v>89002.75999999999</v>
       </c>
       <c r="D29">
         <v>2019</v>
@@ -803,7 +803,7 @@
         <v>1</v>
       </c>
       <c r="C30">
-        <v>92594.21000000001</v>
+        <v>80022.53999999999</v>
       </c>
       <c r="D30">
         <v>2020</v>
@@ -817,7 +817,7 @@
         <v>2</v>
       </c>
       <c r="C31">
-        <v>107787.95</v>
+        <v>93732.64999999999</v>
       </c>
       <c r="D31">
         <v>2020</v>
@@ -831,7 +831,7 @@
         <v>3</v>
       </c>
       <c r="C32">
-        <v>73470.87</v>
+        <v>69704.17</v>
       </c>
       <c r="D32">
         <v>2020</v>
@@ -845,7 +845,7 @@
         <v>1</v>
       </c>
       <c r="C33">
-        <v>75576.38</v>
+        <v>66037.49000000001</v>
       </c>
       <c r="D33">
         <v>2020</v>
@@ -859,7 +859,7 @@
         <v>2</v>
       </c>
       <c r="C34">
-        <v>88151.3</v>
+        <v>78463.5</v>
       </c>
       <c r="D34">
         <v>2020</v>
@@ -873,7 +873,7 @@
         <v>3</v>
       </c>
       <c r="C35">
-        <v>61050.3</v>
+        <v>58958</v>
       </c>
       <c r="D35">
         <v>2020</v>
@@ -887,7 +887,7 @@
         <v>1</v>
       </c>
       <c r="C36">
-        <v>98670.19</v>
+        <v>73589.61</v>
       </c>
       <c r="D36">
         <v>2020</v>
@@ -901,7 +901,7 @@
         <v>2</v>
       </c>
       <c r="C37">
-        <v>58536.98</v>
+        <v>46998.8</v>
       </c>
       <c r="D37">
         <v>2020</v>
@@ -915,7 +915,7 @@
         <v>3</v>
       </c>
       <c r="C38">
-        <v>73555.2</v>
+        <v>65288.2</v>
       </c>
       <c r="D38">
         <v>2020</v>
@@ -929,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="C39">
-        <v>140443.78</v>
+        <v>93324.2</v>
       </c>
       <c r="D39">
         <v>2020</v>
@@ -943,7 +943,7 @@
         <v>3</v>
       </c>
       <c r="C40">
-        <v>91279.60000000001</v>
+        <v>83031.60000000001</v>
       </c>
       <c r="D40">
         <v>2020</v>
@@ -957,7 +957,7 @@
         <v>1</v>
       </c>
       <c r="C41">
-        <v>161141.99</v>
+        <v>98463.89</v>
       </c>
       <c r="D41">
         <v>2020</v>
@@ -971,7 +971,7 @@
         <v>3</v>
       </c>
       <c r="C42">
-        <v>136931.3</v>
+        <v>128546</v>
       </c>
       <c r="D42">
         <v>2020</v>
@@ -985,7 +985,7 @@
         <v>1</v>
       </c>
       <c r="C43">
-        <v>138357.6</v>
+        <v>90656.39999999999</v>
       </c>
       <c r="D43">
         <v>2020</v>
@@ -999,7 +999,7 @@
         <v>2</v>
       </c>
       <c r="C44">
-        <v>24803.9</v>
+        <v>23639.9</v>
       </c>
       <c r="D44">
         <v>2020</v>
@@ -1013,7 +1013,7 @@
         <v>3</v>
       </c>
       <c r="C45">
-        <v>120657.75</v>
+        <v>117155.15</v>
       </c>
       <c r="D45">
         <v>2020</v>
@@ -1027,7 +1027,7 @@
         <v>1</v>
       </c>
       <c r="C46">
-        <v>121071.51</v>
+        <v>96570.71000000001</v>
       </c>
       <c r="D46">
         <v>2020</v>
@@ -1041,7 +1041,7 @@
         <v>2</v>
       </c>
       <c r="C47">
-        <v>69884.8</v>
+        <v>67227.8</v>
       </c>
       <c r="D47">
         <v>2020</v>
@@ -1055,7 +1055,7 @@
         <v>3</v>
       </c>
       <c r="C48">
-        <v>100690.4</v>
+        <v>99070.60000000001</v>
       </c>
       <c r="D48">
         <v>2020</v>
@@ -1069,7 +1069,7 @@
         <v>1</v>
       </c>
       <c r="C49">
-        <v>146458.53</v>
+        <v>129695.33</v>
       </c>
       <c r="D49">
         <v>2020</v>
@@ -1083,7 +1083,7 @@
         <v>2</v>
       </c>
       <c r="C50">
-        <v>71262</v>
+        <v>68591</v>
       </c>
       <c r="D50">
         <v>2020</v>
@@ -1097,7 +1097,7 @@
         <v>3</v>
       </c>
       <c r="C51">
-        <v>104636.37</v>
+        <v>101045.07</v>
       </c>
       <c r="D51">
         <v>2020</v>
@@ -1111,7 +1111,7 @@
         <v>1</v>
       </c>
       <c r="C52">
-        <v>103945.27</v>
+        <v>85947.64</v>
       </c>
       <c r="D52">
         <v>2020</v>
@@ -1125,7 +1125,7 @@
         <v>2</v>
       </c>
       <c r="C53">
-        <v>87186.60000000001</v>
+        <v>78459.7</v>
       </c>
       <c r="D53">
         <v>2020</v>
@@ -1139,7 +1139,7 @@
         <v>3</v>
       </c>
       <c r="C54">
-        <v>94077.05</v>
+        <v>89181.55</v>
       </c>
       <c r="D54">
         <v>2020</v>
@@ -1153,7 +1153,7 @@
         <v>1</v>
       </c>
       <c r="C55">
-        <v>82381.89999999999</v>
+        <v>64864</v>
       </c>
       <c r="D55">
         <v>2020</v>
@@ -1167,7 +1167,7 @@
         <v>2</v>
       </c>
       <c r="C56">
-        <v>93544.3</v>
+        <v>72659.10000000001</v>
       </c>
       <c r="D56">
         <v>2020</v>
@@ -1181,7 +1181,7 @@
         <v>3</v>
       </c>
       <c r="C57">
-        <v>92153.49000000001</v>
+        <v>81582.49000000001</v>
       </c>
       <c r="D57">
         <v>2020</v>
@@ -1195,7 +1195,7 @@
         <v>1</v>
       </c>
       <c r="C58">
-        <v>80532.34</v>
+        <v>66353.53999999999</v>
       </c>
       <c r="D58">
         <v>2020</v>
@@ -1209,7 +1209,7 @@
         <v>2</v>
       </c>
       <c r="C59">
-        <v>86879.7</v>
+        <v>68274.7</v>
       </c>
       <c r="D59">
         <v>2020</v>
@@ -1223,7 +1223,7 @@
         <v>3</v>
       </c>
       <c r="C60">
-        <v>104833.97</v>
+        <v>90953.97</v>
       </c>
       <c r="D60">
         <v>2020</v>
@@ -1237,7 +1237,7 @@
         <v>1</v>
       </c>
       <c r="C61">
-        <v>70088.08</v>
+        <v>56150.2</v>
       </c>
       <c r="D61">
         <v>2020</v>
@@ -1251,7 +1251,7 @@
         <v>2</v>
       </c>
       <c r="C62">
-        <v>123221.48</v>
+        <v>74505.60000000001</v>
       </c>
       <c r="D62">
         <v>2020</v>
@@ -1265,7 +1265,7 @@
         <v>3</v>
       </c>
       <c r="C63">
-        <v>137999.94</v>
+        <v>130220.54</v>
       </c>
       <c r="D63">
         <v>2020</v>
@@ -1279,7 +1279,7 @@
         <v>1</v>
       </c>
       <c r="C64">
-        <v>301077.18</v>
+        <v>174049.83</v>
       </c>
       <c r="D64">
         <v>2021</v>
@@ -1293,7 +1293,7 @@
         <v>3</v>
       </c>
       <c r="C65">
-        <v>204187.3</v>
+        <v>179345.78</v>
       </c>
       <c r="D65">
         <v>2021</v>
@@ -1307,7 +1307,7 @@
         <v>1</v>
       </c>
       <c r="C66">
-        <v>183225.45</v>
+        <v>140866.45</v>
       </c>
       <c r="D66">
         <v>2021</v>
@@ -1321,7 +1321,7 @@
         <v>2</v>
       </c>
       <c r="C67">
-        <v>15180.34</v>
+        <v>11530.75</v>
       </c>
       <c r="D67">
         <v>2021</v>
@@ -1335,7 +1335,7 @@
         <v>3</v>
       </c>
       <c r="C68">
-        <v>110183.85</v>
+        <v>97773.95</v>
       </c>
       <c r="D68">
         <v>2021</v>
@@ -1349,7 +1349,7 @@
         <v>1</v>
       </c>
       <c r="C69">
-        <v>215883.3</v>
+        <v>138592.28</v>
       </c>
       <c r="D69">
         <v>2021</v>
@@ -1363,7 +1363,7 @@
         <v>2</v>
       </c>
       <c r="C70">
-        <v>87938.86</v>
+        <v>72901.75999999999</v>
       </c>
       <c r="D70">
         <v>2021</v>
@@ -1377,7 +1377,7 @@
         <v>3</v>
       </c>
       <c r="C71">
-        <v>167728.77</v>
+        <v>135124.87</v>
       </c>
       <c r="D71">
         <v>2021</v>
@@ -1391,7 +1391,7 @@
         <v>1</v>
       </c>
       <c r="C72">
-        <v>157680.05</v>
+        <v>101591.63</v>
       </c>
       <c r="D72">
         <v>2021</v>
@@ -1405,7 +1405,7 @@
         <v>2</v>
       </c>
       <c r="C73">
-        <v>94664.53</v>
+        <v>72833.03</v>
       </c>
       <c r="D73">
         <v>2021</v>
@@ -1419,7 +1419,7 @@
         <v>3</v>
       </c>
       <c r="C74">
-        <v>162156.25</v>
+        <v>139596.45</v>
       </c>
       <c r="D74">
         <v>2021</v>
@@ -1433,7 +1433,7 @@
         <v>1</v>
       </c>
       <c r="C75">
-        <v>184020.27</v>
+        <v>116747.51</v>
       </c>
       <c r="D75">
         <v>2021</v>
@@ -1447,7 +1447,7 @@
         <v>2</v>
       </c>
       <c r="C76">
-        <v>102152.24</v>
+        <v>83633.44</v>
       </c>
       <c r="D76">
         <v>2021</v>
@@ -1461,7 +1461,7 @@
         <v>3</v>
       </c>
       <c r="C77">
-        <v>171179.28</v>
+        <v>160810.09</v>
       </c>
       <c r="D77">
         <v>2021</v>
@@ -1475,7 +1475,7 @@
         <v>1</v>
       </c>
       <c r="C78">
-        <v>172701</v>
+        <v>118666.9</v>
       </c>
       <c r="D78">
         <v>2021</v>
@@ -1489,7 +1489,7 @@
         <v>2</v>
       </c>
       <c r="C79">
-        <v>122641.96</v>
+        <v>100077.35</v>
       </c>
       <c r="D79">
         <v>2021</v>
@@ -1503,7 +1503,7 @@
         <v>3</v>
       </c>
       <c r="C80">
-        <v>209467.15</v>
+        <v>186771.75</v>
       </c>
       <c r="D80">
         <v>2021</v>
@@ -1517,7 +1517,7 @@
         <v>1</v>
       </c>
       <c r="C81">
-        <v>265473.71</v>
+        <v>134818.03</v>
       </c>
       <c r="D81">
         <v>2021</v>
@@ -1531,7 +1531,7 @@
         <v>2</v>
       </c>
       <c r="C82">
-        <v>229027.89</v>
+        <v>150325.49</v>
       </c>
       <c r="D82">
         <v>2021</v>
@@ -1545,7 +1545,7 @@
         <v>3</v>
       </c>
       <c r="C83">
-        <v>320219.66</v>
+        <v>258459.76</v>
       </c>
       <c r="D83">
         <v>2021</v>
@@ -1559,7 +1559,7 @@
         <v>1</v>
       </c>
       <c r="C84">
-        <v>222741.83</v>
+        <v>149645.26</v>
       </c>
       <c r="D84">
         <v>2021</v>
@@ -1573,7 +1573,7 @@
         <v>2</v>
       </c>
       <c r="C85">
-        <v>206950.37</v>
+        <v>138455.02</v>
       </c>
       <c r="D85">
         <v>2021</v>
@@ -1587,7 +1587,7 @@
         <v>3</v>
       </c>
       <c r="C86">
-        <v>197353.72</v>
+        <v>161221.47</v>
       </c>
       <c r="D86">
         <v>2021</v>
@@ -1601,7 +1601,7 @@
         <v>1</v>
       </c>
       <c r="C87">
-        <v>227233.7</v>
+        <v>166946.09</v>
       </c>
       <c r="D87">
         <v>2021</v>
@@ -1615,7 +1615,7 @@
         <v>2</v>
       </c>
       <c r="C88">
-        <v>177107.21</v>
+        <v>120231</v>
       </c>
       <c r="D88">
         <v>2021</v>
@@ -1629,7 +1629,7 @@
         <v>3</v>
       </c>
       <c r="C89">
-        <v>216049.49</v>
+        <v>171736.28</v>
       </c>
       <c r="D89">
         <v>2021</v>
@@ -1643,7 +1643,7 @@
         <v>1</v>
       </c>
       <c r="C90">
-        <v>197303.19</v>
+        <v>140962.86</v>
       </c>
       <c r="D90">
         <v>2021</v>
@@ -1657,7 +1657,7 @@
         <v>2</v>
       </c>
       <c r="C91">
-        <v>200780.7</v>
+        <v>133627.48</v>
       </c>
       <c r="D91">
         <v>2021</v>
@@ -1671,7 +1671,7 @@
         <v>3</v>
       </c>
       <c r="C92">
-        <v>179012.02</v>
+        <v>144313.09</v>
       </c>
       <c r="D92">
         <v>2021</v>
@@ -1685,7 +1685,7 @@
         <v>1</v>
       </c>
       <c r="C93">
-        <v>269821.04</v>
+        <v>193065.15</v>
       </c>
       <c r="D93">
         <v>2021</v>
@@ -1699,7 +1699,7 @@
         <v>2</v>
       </c>
       <c r="C94">
-        <v>169445.28</v>
+        <v>97659.92999999999</v>
       </c>
       <c r="D94">
         <v>2021</v>
@@ -1713,7 +1713,7 @@
         <v>3</v>
       </c>
       <c r="C95">
-        <v>291795.77</v>
+        <v>227595.29</v>
       </c>
       <c r="D95">
         <v>2021</v>
@@ -1727,7 +1727,7 @@
         <v>1</v>
       </c>
       <c r="C96">
-        <v>153449.41</v>
+        <v>128356.05</v>
       </c>
       <c r="D96">
         <v>2021</v>
@@ -1741,7 +1741,7 @@
         <v>2</v>
       </c>
       <c r="C97">
-        <v>174502.94</v>
+        <v>124180.92</v>
       </c>
       <c r="D97">
         <v>2021</v>
@@ -1755,7 +1755,7 @@
         <v>3</v>
       </c>
       <c r="C98">
-        <v>204160.41</v>
+        <v>177601.54</v>
       </c>
       <c r="D98">
         <v>2021</v>
@@ -1769,7 +1769,7 @@
         <v>1</v>
       </c>
       <c r="C99">
-        <v>125518.49</v>
+        <v>99976.27</v>
       </c>
       <c r="D99">
         <v>2022</v>
@@ -1783,7 +1783,7 @@
         <v>2</v>
       </c>
       <c r="C100">
-        <v>114374.29</v>
+        <v>82839.95</v>
       </c>
       <c r="D100">
         <v>2022</v>
@@ -1797,7 +1797,7 @@
         <v>3</v>
       </c>
       <c r="C101">
-        <v>204831.75</v>
+        <v>179473.11</v>
       </c>
       <c r="D101">
         <v>2022</v>
@@ -1811,7 +1811,7 @@
         <v>1</v>
       </c>
       <c r="C102">
-        <v>139024.66</v>
+        <v>110801.41</v>
       </c>
       <c r="D102">
         <v>2022</v>
@@ -1825,7 +1825,7 @@
         <v>2</v>
       </c>
       <c r="C103">
-        <v>107232.04</v>
+        <v>74907.52</v>
       </c>
       <c r="D103">
         <v>2022</v>
@@ -1839,7 +1839,7 @@
         <v>3</v>
       </c>
       <c r="C104">
-        <v>176864.63</v>
+        <v>152538.11</v>
       </c>
       <c r="D104">
         <v>2022</v>
@@ -1853,7 +1853,7 @@
         <v>1</v>
       </c>
       <c r="C105">
-        <v>155498.38</v>
+        <v>125043.73</v>
       </c>
       <c r="D105">
         <v>2022</v>
@@ -1867,7 +1867,7 @@
         <v>2</v>
       </c>
       <c r="C106">
-        <v>112596.77</v>
+        <v>80918.42</v>
       </c>
       <c r="D106">
         <v>2022</v>
@@ -1881,7 +1881,7 @@
         <v>3</v>
       </c>
       <c r="C107">
-        <v>193345.25</v>
+        <v>168944.3</v>
       </c>
       <c r="D107">
         <v>2022</v>
@@ -1895,7 +1895,7 @@
         <v>1</v>
       </c>
       <c r="C108">
-        <v>217360.96</v>
+        <v>163537.61</v>
       </c>
       <c r="D108">
         <v>2022</v>
@@ -1909,7 +1909,7 @@
         <v>2</v>
       </c>
       <c r="C109">
-        <v>122451.32</v>
+        <v>78053.97</v>
       </c>
       <c r="D109">
         <v>2022</v>
@@ -1923,7 +1923,7 @@
         <v>3</v>
       </c>
       <c r="C110">
-        <v>188671.29</v>
+        <v>140041.89</v>
       </c>
       <c r="D110">
         <v>2022</v>
@@ -1937,7 +1937,7 @@
         <v>1</v>
       </c>
       <c r="C111">
-        <v>197233.01</v>
+        <v>145001.01</v>
       </c>
       <c r="D111">
         <v>2022</v>
@@ -1951,7 +1951,7 @@
         <v>2</v>
       </c>
       <c r="C112">
-        <v>128187.34</v>
+        <v>77954.78999999999</v>
       </c>
       <c r="D112">
         <v>2022</v>
@@ -1965,7 +1965,7 @@
         <v>3</v>
       </c>
       <c r="C113">
-        <v>228164.45</v>
+        <v>175703.55</v>
       </c>
       <c r="D113">
         <v>2022</v>
@@ -1973,13 +1973,13 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B114">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C114">
-        <v>44172.14999999999</v>
+        <v>125859.87</v>
       </c>
       <c r="D114">
         <v>2022</v>
@@ -1990,10 +1990,10 @@
         <v>6</v>
       </c>
       <c r="B115">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C115">
-        <v>166973.45</v>
+        <v>84645.05</v>
       </c>
       <c r="D115">
         <v>2022</v>
@@ -2004,10 +2004,10 @@
         <v>6</v>
       </c>
       <c r="B116">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C116">
-        <v>121245.83</v>
+        <v>162008.6</v>
       </c>
       <c r="D116">
         <v>2022</v>
@@ -2015,13 +2015,13 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B117">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C117">
-        <v>199878.78</v>
+        <v>128765.73</v>
       </c>
       <c r="D117">
         <v>2022</v>
@@ -2029,13 +2029,13 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B118">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C118">
-        <v>32864.48</v>
+        <v>77958.84</v>
       </c>
       <c r="D118">
         <v>2022</v>
@@ -2046,10 +2046,10 @@
         <v>7</v>
       </c>
       <c r="B119">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C119">
-        <v>192575.65</v>
+        <v>155876</v>
       </c>
       <c r="D119">
         <v>2022</v>
@@ -2057,13 +2057,13 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C120">
-        <v>141899.03</v>
+        <v>99669.22</v>
       </c>
       <c r="D120">
         <v>2022</v>
@@ -2071,13 +2071,13 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B121">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C121">
-        <v>215031.15</v>
+        <v>92795.11</v>
       </c>
       <c r="D121">
         <v>2022</v>
@@ -2085,13 +2085,13 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B122">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C122">
-        <v>57721.49</v>
+        <v>121519</v>
       </c>
       <c r="D122">
         <v>2022</v>
@@ -2102,10 +2102,10 @@
         <v>8</v>
       </c>
       <c r="B123">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C123">
-        <v>147632.99</v>
+        <v>46087.5</v>
       </c>
       <c r="D123">
         <v>2022</v>
@@ -2113,13 +2113,13 @@
     </row>
     <row r="124" spans="1:4">
       <c r="A124">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C124">
-        <v>146614.98</v>
+        <v>78657.5</v>
       </c>
       <c r="D124">
         <v>2022</v>
@@ -2127,13 +2127,13 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B125">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C125">
-        <v>168717.17</v>
+        <v>218020.79</v>
       </c>
       <c r="D125">
         <v>2022</v>
@@ -2141,13 +2141,13 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B126">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C126">
-        <v>88388.67</v>
+        <v>122542.5</v>
       </c>
       <c r="D126">
         <v>2022</v>
@@ -2158,10 +2158,10 @@
         <v>9</v>
       </c>
       <c r="B127">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C127">
-        <v>106924.46</v>
+        <v>87935.82000000001</v>
       </c>
       <c r="D127">
         <v>2022</v>
@@ -2169,13 +2169,13 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C128">
-        <v>248895.75</v>
+        <v>79495.39</v>
       </c>
       <c r="D128">
         <v>2022</v>
@@ -2183,13 +2183,13 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B129">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C129">
-        <v>149890.06</v>
+        <v>298571.75</v>
       </c>
       <c r="D129">
         <v>2022</v>
@@ -2197,13 +2197,13 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B130">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C130">
-        <v>111464.68</v>
+        <v>135027.97</v>
       </c>
       <c r="D130">
         <v>2022</v>
@@ -2214,10 +2214,10 @@
         <v>10</v>
       </c>
       <c r="B131">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C131">
-        <v>125793.7</v>
+        <v>125098.8</v>
       </c>
       <c r="D131">
         <v>2022</v>
@@ -2225,13 +2225,13 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C132">
-        <v>357298.61</v>
+        <v>92977.61</v>
       </c>
       <c r="D132">
         <v>2022</v>
@@ -2239,13 +2239,13 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B133">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C133">
-        <v>179901.83</v>
+        <v>193143.4</v>
       </c>
       <c r="D133">
         <v>2022</v>
@@ -2253,13 +2253,13 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B134">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C134">
-        <v>165844</v>
+        <v>118974.2</v>
       </c>
       <c r="D134">
         <v>2022</v>
@@ -2270,10 +2270,10 @@
         <v>11</v>
       </c>
       <c r="B135">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C135">
-        <v>151428.11</v>
+        <v>82834.83</v>
       </c>
       <c r="D135">
         <v>2022</v>
@@ -2281,13 +2281,13 @@
     </row>
     <row r="136" spans="1:4">
       <c r="A136">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B136">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C136">
-        <v>275105.38</v>
+        <v>102091.63</v>
       </c>
       <c r="D136">
         <v>2022</v>
@@ -2295,13 +2295,13 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B137">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C137">
-        <v>177658.12</v>
+        <v>172577.03</v>
       </c>
       <c r="D137">
         <v>2022</v>
@@ -2309,13 +2309,13 @@
     </row>
     <row r="138" spans="1:4">
       <c r="A138">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B138">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C138">
-        <v>132573.55</v>
+        <v>155756.44</v>
       </c>
       <c r="D138">
         <v>2022</v>
@@ -2326,10 +2326,10 @@
         <v>12</v>
       </c>
       <c r="B139">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C139">
-        <v>226104.97</v>
+        <v>110377.69</v>
       </c>
       <c r="D139">
         <v>2022</v>
@@ -2337,44 +2337,44 @@
     </row>
     <row r="140" spans="1:4">
       <c r="A140">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C140">
-        <v>328465.11</v>
+        <v>92569.89999999999</v>
       </c>
       <c r="D140">
-        <v>2022</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B141">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C141">
-        <v>271144.73</v>
+        <v>112946.47</v>
       </c>
       <c r="D141">
-        <v>2022</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B142">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C142">
-        <v>217003.53</v>
+        <v>128574.65</v>
       </c>
       <c r="D142">
-        <v>2022</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -2382,10 +2382,10 @@
         <v>1</v>
       </c>
       <c r="B143">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C143">
-        <v>118458.65</v>
+        <v>82519.55</v>
       </c>
       <c r="D143">
         <v>2023</v>
@@ -2393,13 +2393,13 @@
     </row>
     <row r="144" spans="1:4">
       <c r="A144">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B144">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C144">
-        <v>162296.62</v>
+        <v>77025.39</v>
       </c>
       <c r="D144">
         <v>2023</v>
@@ -2407,13 +2407,13 @@
     </row>
     <row r="145" spans="1:4">
       <c r="A145">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B145">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C145">
-        <v>149264.3</v>
+        <v>89237.52</v>
       </c>
       <c r="D145">
         <v>2023</v>
@@ -2421,13 +2421,13 @@
     </row>
     <row r="146" spans="1:4">
       <c r="A146">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B146">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C146">
-        <v>98659.5</v>
+        <v>111949.86</v>
       </c>
       <c r="D146">
         <v>2023</v>
@@ -2438,10 +2438,10 @@
         <v>2</v>
       </c>
       <c r="B147">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C147">
-        <v>132165.7</v>
+        <v>90640.63</v>
       </c>
       <c r="D147">
         <v>2023</v>
@@ -2449,13 +2449,13 @@
     </row>
     <row r="148" spans="1:4">
       <c r="A148">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B148">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C148">
-        <v>148453.48</v>
+        <v>90889.7</v>
       </c>
       <c r="D148">
         <v>2023</v>
@@ -2463,13 +2463,13 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B149">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C149">
-        <v>152395.72</v>
+        <v>92099.38</v>
       </c>
       <c r="D149">
         <v>2023</v>
@@ -2477,13 +2477,13 @@
     </row>
     <row r="150" spans="1:4">
       <c r="A150">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B150">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C150">
-        <v>123985.99</v>
+        <v>119634.57</v>
       </c>
       <c r="D150">
         <v>2023</v>
@@ -2494,10 +2494,10 @@
         <v>3</v>
       </c>
       <c r="B151">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C151">
-        <v>164155.36</v>
+        <v>99751.82000000001</v>
       </c>
       <c r="D151">
         <v>2023</v>
@@ -2505,13 +2505,13 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B152">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C152">
-        <v>168625.6</v>
+        <v>68077.38</v>
       </c>
       <c r="D152">
         <v>2023</v>
@@ -2519,13 +2519,13 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B153">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C153">
-        <v>181881.59</v>
+        <v>95119.60000000001</v>
       </c>
       <c r="D153">
         <v>2023</v>
@@ -2533,13 +2533,13 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B154">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C154">
-        <v>146706.63</v>
+        <v>99153.05</v>
       </c>
       <c r="D154">
         <v>2023</v>
@@ -2550,10 +2550,10 @@
         <v>4</v>
       </c>
       <c r="B155">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C155">
-        <v>126052.13</v>
+        <v>74560.03999999999</v>
       </c>
       <c r="D155">
         <v>2023</v>
@@ -2561,13 +2561,13 @@
     </row>
     <row r="156" spans="1:4">
       <c r="A156">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B156">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C156">
-        <v>175099.55</v>
+        <v>73543.21000000001</v>
       </c>
       <c r="D156">
         <v>2023</v>
@@ -2575,13 +2575,13 @@
     </row>
     <row r="157" spans="1:4">
       <c r="A157">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B157">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C157">
-        <v>162199.15</v>
+        <v>90017.3</v>
       </c>
       <c r="D157">
         <v>2023</v>
@@ -2589,13 +2589,13 @@
     </row>
     <row r="158" spans="1:4">
       <c r="A158">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B158">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C158">
-        <v>128852.69</v>
+        <v>110435.82</v>
       </c>
       <c r="D158">
         <v>2023</v>
@@ -2606,10 +2606,10 @@
         <v>5</v>
       </c>
       <c r="B159">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C159">
-        <v>147122.18</v>
+        <v>97536.28</v>
       </c>
       <c r="D159">
         <v>2023</v>
@@ -2617,13 +2617,13 @@
     </row>
     <row r="160" spans="1:4">
       <c r="A160">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B160">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C160">
-        <v>185403.47</v>
+        <v>66072.5</v>
       </c>
       <c r="D160">
         <v>2023</v>
@@ -2631,13 +2631,13 @@
     </row>
     <row r="161" spans="1:4">
       <c r="A161">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B161">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C161">
-        <v>184391.49</v>
+        <v>90432</v>
       </c>
       <c r="D161">
         <v>2023</v>
@@ -2645,13 +2645,13 @@
     </row>
     <row r="162" spans="1:4">
       <c r="A162">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B162">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C162">
-        <v>167325.35</v>
+        <v>96346.35000000001</v>
       </c>
       <c r="D162">
         <v>2023</v>
@@ -2662,10 +2662,10 @@
         <v>6</v>
       </c>
       <c r="B163">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C163">
-        <v>100571.77</v>
+        <v>92157.31</v>
       </c>
       <c r="D163">
         <v>2023</v>
@@ -2673,13 +2673,13 @@
     </row>
     <row r="164" spans="1:4">
       <c r="A164">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B164">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C164">
-        <v>143965.12</v>
+        <v>103970.08</v>
       </c>
       <c r="D164">
         <v>2023</v>
@@ -2687,13 +2687,13 @@
     </row>
     <row r="165" spans="1:4">
       <c r="A165">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B165">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C165">
-        <v>132899.57</v>
+        <v>84060.10000000001</v>
       </c>
       <c r="D165">
         <v>2023</v>
@@ -2701,13 +2701,13 @@
     </row>
     <row r="166" spans="1:4">
       <c r="A166">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B166">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C166">
-        <v>119979.57</v>
+        <v>113616.09</v>
       </c>
       <c r="D166">
         <v>2023</v>
@@ -2718,10 +2718,10 @@
         <v>7</v>
       </c>
       <c r="B167">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C167">
-        <v>154118.55</v>
+        <v>89485.58</v>
       </c>
       <c r="D167">
         <v>2023</v>
@@ -2729,13 +2729,13 @@
     </row>
     <row r="168" spans="1:4">
       <c r="A168">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B168">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C168">
-        <v>158977.97</v>
+        <v>69848.38</v>
       </c>
       <c r="D168">
         <v>2023</v>
@@ -2743,13 +2743,13 @@
     </row>
     <row r="169" spans="1:4">
       <c r="A169">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B169">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C169">
-        <v>164233.26</v>
+        <v>77561.60000000001</v>
       </c>
       <c r="D169">
         <v>2023</v>
@@ -2757,13 +2757,13 @@
     </row>
     <row r="170" spans="1:4">
       <c r="A170">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B170">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C170">
-        <v>137244.66</v>
+        <v>98148</v>
       </c>
       <c r="D170">
         <v>2023</v>
@@ -2774,10 +2774,10 @@
         <v>8</v>
       </c>
       <c r="B171">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C171">
-        <v>110685.11</v>
+        <v>78494.03999999999</v>
       </c>
       <c r="D171">
         <v>2023</v>
@@ -2785,13 +2785,13 @@
     </row>
     <row r="172" spans="1:4">
       <c r="A172">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B172">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C172">
-        <v>139601.43</v>
+        <v>60360.31</v>
       </c>
       <c r="D172">
         <v>2023</v>
@@ -2799,13 +2799,13 @@
     </row>
     <row r="173" spans="1:4">
       <c r="A173">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B173">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C173">
-        <v>143299.03</v>
+        <v>83361.58</v>
       </c>
       <c r="D173">
         <v>2023</v>
@@ -2813,13 +2813,13 @@
     </row>
     <row r="174" spans="1:4">
       <c r="A174">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B174">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C174">
-        <v>117030.07</v>
+        <v>97875.5</v>
       </c>
       <c r="D174">
         <v>2023</v>
@@ -2830,10 +2830,10 @@
         <v>9</v>
       </c>
       <c r="B175">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C175">
-        <v>97481.60000000001</v>
+        <v>89602.42999999999</v>
       </c>
       <c r="D175">
         <v>2023</v>
@@ -2841,13 +2841,13 @@
     </row>
     <row r="176" spans="1:4">
       <c r="A176">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B176">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C176">
-        <v>142650.24</v>
+        <v>102078.69</v>
       </c>
       <c r="D176">
         <v>2023</v>
@@ -2855,13 +2855,13 @@
     </row>
     <row r="177" spans="1:4">
       <c r="A177">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B177">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C177">
-        <v>143903.69</v>
+        <v>87505.78999999999</v>
       </c>
       <c r="D177">
         <v>2023</v>
@@ -2869,13 +2869,13 @@
     </row>
     <row r="178" spans="1:4">
       <c r="A178">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B178">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C178">
-        <v>126071.92</v>
+        <v>94930.10000000001</v>
       </c>
       <c r="D178">
         <v>2023</v>
@@ -2886,10 +2886,10 @@
         <v>10</v>
       </c>
       <c r="B179">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C179">
-        <v>199476.98</v>
+        <v>76815.45</v>
       </c>
       <c r="D179">
         <v>2023</v>
@@ -2897,13 +2897,13 @@
     </row>
     <row r="180" spans="1:4">
       <c r="A180">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B180">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C180">
-        <v>153864.4</v>
+        <v>62960.98</v>
       </c>
       <c r="D180">
         <v>2023</v>
@@ -2911,13 +2911,13 @@
     </row>
     <row r="181" spans="1:4">
       <c r="A181">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B181">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C181">
-        <v>141265.73</v>
+        <v>87459.66</v>
       </c>
       <c r="D181">
         <v>2023</v>
@@ -2925,13 +2925,13 @@
     </row>
     <row r="182" spans="1:4">
       <c r="A182">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B182">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C182">
-        <v>117657.38</v>
+        <v>99945.67999999999</v>
       </c>
       <c r="D182">
         <v>2023</v>
@@ -2942,10 +2942,10 @@
         <v>11</v>
       </c>
       <c r="B183">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C183">
-        <v>94546.81</v>
+        <v>83504.64</v>
       </c>
       <c r="D183">
         <v>2023</v>
@@ -2953,13 +2953,13 @@
     </row>
     <row r="184" spans="1:4">
       <c r="A184">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B184">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C184">
-        <v>143358.21</v>
+        <v>100610.75</v>
       </c>
       <c r="D184">
         <v>2023</v>
@@ -2967,13 +2967,13 @@
     </row>
     <row r="185" spans="1:4">
       <c r="A185">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B185">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C185">
-        <v>138833.92</v>
+        <v>138818.62</v>
       </c>
       <c r="D185">
         <v>2023</v>
@@ -2981,13 +2981,13 @@
     </row>
     <row r="186" spans="1:4">
       <c r="A186">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B186">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C186">
-        <v>113500.6</v>
+        <v>154238.97</v>
       </c>
       <c r="D186">
         <v>2023</v>
@@ -2998,10 +2998,10 @@
         <v>12</v>
       </c>
       <c r="B187">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C187">
-        <v>144376.67</v>
+        <v>93531.7</v>
       </c>
       <c r="D187">
         <v>2023</v>
@@ -3009,44 +3009,44 @@
     </row>
     <row r="188" spans="1:4">
       <c r="A188">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B188">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C188">
-        <v>223010.75</v>
+        <v>76481.53999999999</v>
       </c>
       <c r="D188">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B189">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C189">
-        <v>187750.94</v>
+        <v>87456.92999999999</v>
       </c>
       <c r="D189">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B190">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C190">
-        <v>118983.47</v>
+        <v>113868.41</v>
       </c>
       <c r="D190">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3054,10 +3054,10 @@
         <v>1</v>
       </c>
       <c r="B191">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C191">
-        <v>94243.06</v>
+        <v>91858.2</v>
       </c>
       <c r="D191">
         <v>2024</v>
@@ -3065,13 +3065,13 @@
     </row>
     <row r="192" spans="1:4">
       <c r="A192">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B192">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C192">
-        <v>129691.61</v>
+        <v>83689.28</v>
       </c>
       <c r="D192">
         <v>2024</v>
@@ -3079,13 +3079,13 @@
     </row>
     <row r="193" spans="1:4">
       <c r="A193">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B193">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C193">
-        <v>129436.82</v>
+        <v>80375.89999999999</v>
       </c>
       <c r="D193">
         <v>2024</v>
@@ -3093,13 +3093,13 @@
     </row>
     <row r="194" spans="1:4">
       <c r="A194">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B194">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C194">
-        <v>101571.12</v>
+        <v>89382.28</v>
       </c>
       <c r="D194">
         <v>2024</v>
@@ -3110,10 +3110,10 @@
         <v>2</v>
       </c>
       <c r="B195">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C195">
-        <v>121805.48</v>
+        <v>69373.78</v>
       </c>
       <c r="D195">
         <v>2024</v>
@@ -3121,13 +3121,13 @@
     </row>
     <row r="196" spans="1:4">
       <c r="A196">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B196">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C196">
-        <v>134982.61</v>
+        <v>138953.3</v>
       </c>
       <c r="D196">
         <v>2024</v>
@@ -3135,13 +3135,13 @@
     </row>
     <row r="197" spans="1:4">
       <c r="A197">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B197">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C197">
-        <v>129591.29</v>
+        <v>83624.8</v>
       </c>
       <c r="D197">
         <v>2024</v>
@@ -3149,13 +3149,13 @@
     </row>
     <row r="198" spans="1:4">
       <c r="A198">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B198">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C198">
-        <v>99991.89</v>
+        <v>100928.93</v>
       </c>
       <c r="D198">
         <v>2024</v>
@@ -3166,10 +3166,10 @@
         <v>3</v>
       </c>
       <c r="B199">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C199">
-        <v>180697.2</v>
+        <v>71156.46000000001</v>
       </c>
       <c r="D199">
         <v>2024</v>
@@ -3177,13 +3177,13 @@
     </row>
     <row r="200" spans="1:4">
       <c r="A200">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B200">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C200">
-        <v>144990.15</v>
+        <v>183879.55</v>
       </c>
       <c r="D200">
         <v>2024</v>
@@ -3191,13 +3191,13 @@
     </row>
     <row r="201" spans="1:4">
       <c r="A201">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B201">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C201">
-        <v>139215.67</v>
+        <v>83725.35000000001</v>
       </c>
       <c r="D201">
         <v>2024</v>
@@ -3205,13 +3205,13 @@
     </row>
     <row r="202" spans="1:4">
       <c r="A202">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B202">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C202">
-        <v>105875.21</v>
+        <v>118274.19</v>
       </c>
       <c r="D202">
         <v>2024</v>
@@ -3222,10 +3222,10 @@
         <v>4</v>
       </c>
       <c r="B203">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C203">
-        <v>204899.25</v>
+        <v>64840.6</v>
       </c>
       <c r="D203">
         <v>2024</v>
@@ -3233,13 +3233,13 @@
     </row>
     <row r="204" spans="1:4">
       <c r="A204">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B204">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C204">
-        <v>127726.15</v>
+        <v>193538.67</v>
       </c>
       <c r="D204">
         <v>2024</v>
@@ -3247,13 +3247,13 @@
     </row>
     <row r="205" spans="1:4">
       <c r="A205">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B205">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C205">
-        <v>142399.64</v>
+        <v>107710.7</v>
       </c>
       <c r="D205">
         <v>2024</v>
@@ -3261,13 +3261,13 @@
     </row>
     <row r="206" spans="1:4">
       <c r="A206">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B206">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C206">
-        <v>78960.85000000001</v>
+        <v>141580.23</v>
       </c>
       <c r="D206">
         <v>2024</v>
@@ -3278,10 +3278,10 @@
         <v>5</v>
       </c>
       <c r="B207">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C207">
-        <v>269878.07</v>
+        <v>70710.46000000001</v>
       </c>
       <c r="D207">
         <v>2024</v>
@@ -3289,13 +3289,13 @@
     </row>
     <row r="208" spans="1:4">
       <c r="A208">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B208">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C208">
-        <v>216885.1</v>
+        <v>204648.89</v>
       </c>
       <c r="D208">
         <v>2024</v>
@@ -3303,13 +3303,13 @@
     </row>
     <row r="209" spans="1:4">
       <c r="A209">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B209">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C209">
-        <v>225077.43</v>
+        <v>122072.5</v>
       </c>
       <c r="D209">
         <v>2024</v>
@@ -3317,13 +3317,13 @@
     </row>
     <row r="210" spans="1:4">
       <c r="A210">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B210">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C210">
-        <v>143695.76</v>
+        <v>110739.85</v>
       </c>
       <c r="D210">
         <v>2024</v>
@@ -3334,10 +3334,10 @@
         <v>6</v>
       </c>
       <c r="B211">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C211">
-        <v>233704.6</v>
+        <v>73501.37</v>
       </c>
       <c r="D211">
         <v>2024</v>
@@ -3345,13 +3345,13 @@
     </row>
     <row r="212" spans="1:4">
       <c r="A212">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B212">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C212">
-        <v>160508.01</v>
+        <v>277013.16</v>
       </c>
       <c r="D212">
         <v>2024</v>
@@ -3359,13 +3359,13 @@
     </row>
     <row r="213" spans="1:4">
       <c r="A213">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B213">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C213">
-        <v>138502.36</v>
+        <v>133675.25</v>
       </c>
       <c r="D213">
         <v>2024</v>
@@ -3373,13 +3373,13 @@
     </row>
     <row r="214" spans="1:4">
       <c r="A214">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B214">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C214">
-        <v>92427.08</v>
+        <v>144269.75</v>
       </c>
       <c r="D214">
         <v>2024</v>
@@ -3390,10 +3390,10 @@
         <v>7</v>
       </c>
       <c r="B215">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C215">
-        <v>360089.15</v>
+        <v>92825.50999999999</v>
       </c>
       <c r="D215">
         <v>2024</v>
@@ -3401,13 +3401,13 @@
     </row>
     <row r="216" spans="1:4">
       <c r="A216">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B216">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C216">
-        <v>221199.85</v>
+        <v>288114.15</v>
       </c>
       <c r="D216">
         <v>2024</v>
@@ -3415,13 +3415,13 @@
     </row>
     <row r="217" spans="1:4">
       <c r="A217">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B217">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C217">
-        <v>214211.8</v>
+        <v>137399.2</v>
       </c>
       <c r="D217">
         <v>2024</v>
@@ -3429,13 +3429,13 @@
     </row>
     <row r="218" spans="1:4">
       <c r="A218">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B218">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C218">
-        <v>154848.71</v>
+        <v>107495.7</v>
       </c>
       <c r="D218">
         <v>2024</v>
@@ -3446,10 +3446,10 @@
         <v>8</v>
       </c>
       <c r="B219">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C219">
-        <v>349818.1</v>
+        <v>108889.93</v>
       </c>
       <c r="D219">
         <v>2024</v>
@@ -3457,13 +3457,13 @@
     </row>
     <row r="220" spans="1:4">
       <c r="A220">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B220">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C220">
-        <v>203926.8</v>
+        <v>225599.67</v>
       </c>
       <c r="D220">
         <v>2024</v>
@@ -3471,13 +3471,13 @@
     </row>
     <row r="221" spans="1:4">
       <c r="A221">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B221">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C221">
-        <v>150659.66</v>
+        <v>127500.13</v>
       </c>
       <c r="D221">
         <v>2024</v>
@@ -3485,13 +3485,13 @@
     </row>
     <row r="222" spans="1:4">
       <c r="A222">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B222">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C222">
-        <v>146296.84</v>
+        <v>100088.51</v>
       </c>
       <c r="D222">
         <v>2024</v>
@@ -3502,10 +3502,10 @@
         <v>9</v>
       </c>
       <c r="B223">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C223">
-        <v>284018.16</v>
+        <v>81814.08</v>
       </c>
       <c r="D223">
         <v>2024</v>
@@ -3513,13 +3513,13 @@
     </row>
     <row r="224" spans="1:4">
       <c r="A224">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B224">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C224">
-        <v>175430.93</v>
+        <v>237269.48</v>
       </c>
       <c r="D224">
         <v>2024</v>
@@ -3527,13 +3527,13 @@
     </row>
     <row r="225" spans="1:4">
       <c r="A225">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B225">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C225">
-        <v>140039.31</v>
+        <v>140656</v>
       </c>
       <c r="D225">
         <v>2024</v>
@@ -3541,13 +3541,13 @@
     </row>
     <row r="226" spans="1:4">
       <c r="A226">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B226">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C226">
-        <v>117148.88</v>
+        <v>159884.47</v>
       </c>
       <c r="D226">
         <v>2024</v>
@@ -3558,10 +3558,10 @@
         <v>10</v>
       </c>
       <c r="B227">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C227">
-        <v>357242.64</v>
+        <v>118675.51</v>
       </c>
       <c r="D227">
         <v>2024</v>
@@ -3569,13 +3569,13 @@
     </row>
     <row r="228" spans="1:4">
       <c r="A228">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B228">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C228">
-        <v>237710.2</v>
+        <v>251164.55</v>
       </c>
       <c r="D228">
         <v>2024</v>
@@ -3583,13 +3583,13 @@
     </row>
     <row r="229" spans="1:4">
       <c r="A229">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B229">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C229">
-        <v>261916.17</v>
+        <v>139733.84</v>
       </c>
       <c r="D229">
         <v>2024</v>
@@ -3597,13 +3597,13 @@
     </row>
     <row r="230" spans="1:4">
       <c r="A230">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B230">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C230">
-        <v>207806.21</v>
+        <v>135035.1</v>
       </c>
       <c r="D230">
         <v>2024</v>
@@ -3614,10 +3614,10 @@
         <v>11</v>
       </c>
       <c r="B231">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C231">
-        <v>365724.13</v>
+        <v>103007.24</v>
       </c>
       <c r="D231">
         <v>2024</v>
@@ -3625,13 +3625,13 @@
     </row>
     <row r="232" spans="1:4">
       <c r="A232">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B232">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C232">
-        <v>247367.27</v>
+        <v>321588.37</v>
       </c>
       <c r="D232">
         <v>2024</v>
@@ -3639,13 +3639,13 @@
     </row>
     <row r="233" spans="1:4">
       <c r="A233">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B233">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C233">
-        <v>225286.33</v>
+        <v>202422.27</v>
       </c>
       <c r="D233">
         <v>2024</v>
@@ -3653,13 +3653,13 @@
     </row>
     <row r="234" spans="1:4">
       <c r="A234">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B234">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C234">
-        <v>193411.57</v>
+        <v>180235.25</v>
       </c>
       <c r="D234">
         <v>2024</v>
@@ -3670,10 +3670,10 @@
         <v>12</v>
       </c>
       <c r="B235">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C235">
-        <v>397849.96</v>
+        <v>126476.98</v>
       </c>
       <c r="D235">
         <v>2024</v>
@@ -3681,44 +3681,44 @@
     </row>
     <row r="236" spans="1:4">
       <c r="A236">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B236">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C236">
-        <v>401294.05</v>
+        <v>220878.54</v>
       </c>
       <c r="D236">
-        <v>2024</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B237">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C237">
-        <v>265925.83</v>
+        <v>159501.55</v>
       </c>
       <c r="D237">
-        <v>2024</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B238">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C238">
-        <v>199518.55</v>
+        <v>121864.1</v>
       </c>
       <c r="D238">
-        <v>2024</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -3726,10 +3726,10 @@
         <v>1</v>
       </c>
       <c r="B239">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C239">
-        <v>320175.71</v>
+        <v>85338.17</v>
       </c>
       <c r="D239">
         <v>2025</v>
@@ -3737,13 +3737,13 @@
     </row>
     <row r="240" spans="1:4">
       <c r="A240">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B240">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C240">
-        <v>300043.77</v>
+        <v>329514.13</v>
       </c>
       <c r="D240">
         <v>2025</v>
@@ -3751,13 +3751,13 @@
     </row>
     <row r="241" spans="1:4">
       <c r="A241">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B241">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C241">
-        <v>259867.76</v>
+        <v>147603.2</v>
       </c>
       <c r="D241">
         <v>2025</v>
@@ -3765,13 +3765,13 @@
     </row>
     <row r="242" spans="1:4">
       <c r="A242">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B242">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C242">
-        <v>197541.37</v>
+        <v>167909.4</v>
       </c>
       <c r="D242">
         <v>2025</v>
@@ -3782,10 +3782,10 @@
         <v>2</v>
       </c>
       <c r="B243">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C243">
-        <v>380255.68</v>
+        <v>118184.04</v>
       </c>
       <c r="D243">
         <v>2025</v>
@@ -3793,13 +3793,13 @@
     </row>
     <row r="244" spans="1:4">
       <c r="A244">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B244">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C244">
-        <v>192244.47</v>
+        <v>297483.31</v>
       </c>
       <c r="D244">
         <v>2025</v>
@@ -3807,13 +3807,13 @@
     </row>
     <row r="245" spans="1:4">
       <c r="A245">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B245">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C245">
-        <v>214282.67</v>
+        <v>140188</v>
       </c>
       <c r="D245">
         <v>2025</v>
@@ -3821,13 +3821,13 @@
     </row>
     <row r="246" spans="1:4">
       <c r="A246">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B246">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C246">
-        <v>154401.31</v>
+        <v>141936.9</v>
       </c>
       <c r="D246">
         <v>2025</v>
@@ -3838,10 +3838,10 @@
         <v>3</v>
       </c>
       <c r="B247">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C247">
-        <v>340461.38</v>
+        <v>91012.39999999999</v>
       </c>
       <c r="D247">
         <v>2025</v>
@@ -3849,13 +3849,13 @@
     </row>
     <row r="248" spans="1:4">
       <c r="A248">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B248">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C248">
-        <v>165077.66</v>
+        <v>247089.07</v>
       </c>
       <c r="D248">
         <v>2025</v>
@@ -3863,13 +3863,13 @@
     </row>
     <row r="249" spans="1:4">
       <c r="A249">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B249">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C249">
-        <v>173405.56</v>
+        <v>89253.5</v>
       </c>
       <c r="D249">
         <v>2025</v>
@@ -3877,13 +3877,13 @@
     </row>
     <row r="250" spans="1:4">
       <c r="A250">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B250">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C250">
-        <v>118038.55</v>
+        <v>100409.05</v>
       </c>
       <c r="D250">
         <v>2025</v>
@@ -3894,54 +3894,12 @@
         <v>4</v>
       </c>
       <c r="B251">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C251">
-        <v>265274.96</v>
+        <v>74862.84</v>
       </c>
       <c r="D251">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4">
-      <c r="A252">
-        <v>4</v>
-      </c>
-      <c r="B252">
-        <v>2</v>
-      </c>
-      <c r="C252">
-        <v>110994.17</v>
-      </c>
-      <c r="D252">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4">
-      <c r="A253">
-        <v>4</v>
-      </c>
-      <c r="B253">
-        <v>3</v>
-      </c>
-      <c r="C253">
-        <v>131425.92</v>
-      </c>
-      <c r="D253">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4">
-      <c r="A254">
-        <v>4</v>
-      </c>
-      <c r="B254">
-        <v>4</v>
-      </c>
-      <c r="C254">
-        <v>102730.71</v>
-      </c>
-      <c r="D254">
         <v>2025</v>
       </c>
     </row>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="9">
   <si>
     <t>Mês</t>
   </si>
@@ -26,6 +26,21 @@
   </si>
   <si>
     <t>Ano</t>
+  </si>
+  <si>
+    <t>nome</t>
+  </si>
+  <si>
+    <t>Bibi Cell Mundi</t>
+  </si>
+  <si>
+    <t>Bibi Cell Manauara</t>
+  </si>
+  <si>
+    <t>Bibi Cell Vieiralves</t>
+  </si>
+  <si>
+    <t>Bibi Cell Ponta Negra</t>
   </si>
 </sst>
 </file>
@@ -383,13 +398,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D251"/>
+  <dimension ref="A1:E251"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -402,8 +417,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>7</v>
       </c>
@@ -416,8 +434,11 @@
       <c r="D2">
         <v>2018</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>8</v>
       </c>
@@ -430,8 +451,11 @@
       <c r="D3">
         <v>2018</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>9</v>
       </c>
@@ -444,8 +468,11 @@
       <c r="D4">
         <v>2018</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>10</v>
       </c>
@@ -458,8 +485,11 @@
       <c r="D5">
         <v>2018</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>11</v>
       </c>
@@ -472,8 +502,11 @@
       <c r="D6">
         <v>2018</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>12</v>
       </c>
@@ -486,8 +519,11 @@
       <c r="D7">
         <v>2018</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>1</v>
       </c>
@@ -500,8 +536,11 @@
       <c r="D8">
         <v>2019</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>2</v>
       </c>
@@ -514,8 +553,11 @@
       <c r="D9">
         <v>2019</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>3</v>
       </c>
@@ -528,8 +570,11 @@
       <c r="D10">
         <v>2019</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>4</v>
       </c>
@@ -542,8 +587,11 @@
       <c r="D11">
         <v>2019</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>5</v>
       </c>
@@ -556,8 +604,11 @@
       <c r="D12">
         <v>2019</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>6</v>
       </c>
@@ -570,8 +621,11 @@
       <c r="D13">
         <v>2019</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>7</v>
       </c>
@@ -584,8 +638,11 @@
       <c r="D14">
         <v>2019</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>7</v>
       </c>
@@ -598,8 +655,11 @@
       <c r="D15">
         <v>2019</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>8</v>
       </c>
@@ -612,8 +672,11 @@
       <c r="D16">
         <v>2019</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>8</v>
       </c>
@@ -626,8 +689,11 @@
       <c r="D17">
         <v>2019</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>9</v>
       </c>
@@ -640,8 +706,11 @@
       <c r="D18">
         <v>2019</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>9</v>
       </c>
@@ -654,8 +723,11 @@
       <c r="D19">
         <v>2019</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>9</v>
       </c>
@@ -668,8 +740,11 @@
       <c r="D20">
         <v>2019</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>10</v>
       </c>
@@ -682,8 +757,11 @@
       <c r="D21">
         <v>2019</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>10</v>
       </c>
@@ -696,8 +774,11 @@
       <c r="D22">
         <v>2019</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>10</v>
       </c>
@@ -710,8 +791,11 @@
       <c r="D23">
         <v>2019</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>11</v>
       </c>
@@ -724,8 +808,11 @@
       <c r="D24">
         <v>2019</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25">
         <v>11</v>
       </c>
@@ -738,8 +825,11 @@
       <c r="D25">
         <v>2019</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26">
         <v>11</v>
       </c>
@@ -752,8 +842,11 @@
       <c r="D26">
         <v>2019</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27">
         <v>12</v>
       </c>
@@ -766,8 +859,11 @@
       <c r="D27">
         <v>2019</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28">
         <v>12</v>
       </c>
@@ -780,8 +876,11 @@
       <c r="D28">
         <v>2019</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29">
         <v>12</v>
       </c>
@@ -794,8 +893,11 @@
       <c r="D29">
         <v>2019</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30">
         <v>1</v>
       </c>
@@ -808,8 +910,11 @@
       <c r="D30">
         <v>2020</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31">
         <v>1</v>
       </c>
@@ -822,8 +927,11 @@
       <c r="D31">
         <v>2020</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32">
         <v>1</v>
       </c>
@@ -836,8 +944,11 @@
       <c r="D32">
         <v>2020</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33">
         <v>2</v>
       </c>
@@ -850,8 +961,11 @@
       <c r="D33">
         <v>2020</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="E33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34">
         <v>2</v>
       </c>
@@ -864,8 +978,11 @@
       <c r="D34">
         <v>2020</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="E34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35">
         <v>2</v>
       </c>
@@ -878,8 +995,11 @@
       <c r="D35">
         <v>2020</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36">
         <v>3</v>
       </c>
@@ -892,8 +1012,11 @@
       <c r="D36">
         <v>2020</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="E36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37">
         <v>3</v>
       </c>
@@ -906,8 +1029,11 @@
       <c r="D37">
         <v>2020</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38">
         <v>3</v>
       </c>
@@ -920,8 +1046,11 @@
       <c r="D38">
         <v>2020</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39">
         <v>4</v>
       </c>
@@ -934,8 +1063,11 @@
       <c r="D39">
         <v>2020</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="E39" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40">
         <v>4</v>
       </c>
@@ -948,8 +1080,11 @@
       <c r="D40">
         <v>2020</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="E40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41">
         <v>5</v>
       </c>
@@ -962,8 +1097,11 @@
       <c r="D41">
         <v>2020</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="E41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42">
         <v>5</v>
       </c>
@@ -976,8 +1114,11 @@
       <c r="D42">
         <v>2020</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43">
         <v>6</v>
       </c>
@@ -990,8 +1131,11 @@
       <c r="D43">
         <v>2020</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="E43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44">
         <v>6</v>
       </c>
@@ -1004,8 +1148,11 @@
       <c r="D44">
         <v>2020</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="E44" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45">
         <v>6</v>
       </c>
@@ -1018,8 +1165,11 @@
       <c r="D45">
         <v>2020</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46">
         <v>7</v>
       </c>
@@ -1032,8 +1182,11 @@
       <c r="D46">
         <v>2020</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="E46" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47">
         <v>7</v>
       </c>
@@ -1046,8 +1199,11 @@
       <c r="D47">
         <v>2020</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="E47" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48">
         <v>7</v>
       </c>
@@ -1060,8 +1216,11 @@
       <c r="D48">
         <v>2020</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="E48" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49">
         <v>8</v>
       </c>
@@ -1074,8 +1233,11 @@
       <c r="D49">
         <v>2020</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50">
         <v>8</v>
       </c>
@@ -1088,8 +1250,11 @@
       <c r="D50">
         <v>2020</v>
       </c>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="E50" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51">
         <v>8</v>
       </c>
@@ -1102,8 +1267,11 @@
       <c r="D51">
         <v>2020</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52">
         <v>9</v>
       </c>
@@ -1116,8 +1284,11 @@
       <c r="D52">
         <v>2020</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53">
         <v>9</v>
       </c>
@@ -1130,8 +1301,11 @@
       <c r="D53">
         <v>2020</v>
       </c>
-    </row>
-    <row r="54" spans="1:4">
+      <c r="E53" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54">
         <v>9</v>
       </c>
@@ -1144,8 +1318,11 @@
       <c r="D54">
         <v>2020</v>
       </c>
-    </row>
-    <row r="55" spans="1:4">
+      <c r="E54" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55">
         <v>10</v>
       </c>
@@ -1158,8 +1335,11 @@
       <c r="D55">
         <v>2020</v>
       </c>
-    </row>
-    <row r="56" spans="1:4">
+      <c r="E55" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56">
         <v>10</v>
       </c>
@@ -1172,8 +1352,11 @@
       <c r="D56">
         <v>2020</v>
       </c>
-    </row>
-    <row r="57" spans="1:4">
+      <c r="E56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57">
         <v>10</v>
       </c>
@@ -1186,8 +1369,11 @@
       <c r="D57">
         <v>2020</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58">
         <v>11</v>
       </c>
@@ -1200,8 +1386,11 @@
       <c r="D58">
         <v>2020</v>
       </c>
-    </row>
-    <row r="59" spans="1:4">
+      <c r="E58" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59">
         <v>11</v>
       </c>
@@ -1214,8 +1403,11 @@
       <c r="D59">
         <v>2020</v>
       </c>
-    </row>
-    <row r="60" spans="1:4">
+      <c r="E59" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60">
         <v>11</v>
       </c>
@@ -1228,8 +1420,11 @@
       <c r="D60">
         <v>2020</v>
       </c>
-    </row>
-    <row r="61" spans="1:4">
+      <c r="E60" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61">
         <v>12</v>
       </c>
@@ -1242,8 +1437,11 @@
       <c r="D61">
         <v>2020</v>
       </c>
-    </row>
-    <row r="62" spans="1:4">
+      <c r="E61" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62">
         <v>12</v>
       </c>
@@ -1256,8 +1454,11 @@
       <c r="D62">
         <v>2020</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63">
         <v>12</v>
       </c>
@@ -1270,8 +1471,11 @@
       <c r="D63">
         <v>2020</v>
       </c>
-    </row>
-    <row r="64" spans="1:4">
+      <c r="E63" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64">
         <v>1</v>
       </c>
@@ -1284,8 +1488,11 @@
       <c r="D64">
         <v>2021</v>
       </c>
-    </row>
-    <row r="65" spans="1:4">
+      <c r="E64" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65">
         <v>1</v>
       </c>
@@ -1298,8 +1505,11 @@
       <c r="D65">
         <v>2021</v>
       </c>
-    </row>
-    <row r="66" spans="1:4">
+      <c r="E65" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66">
         <v>2</v>
       </c>
@@ -1312,8 +1522,11 @@
       <c r="D66">
         <v>2021</v>
       </c>
-    </row>
-    <row r="67" spans="1:4">
+      <c r="E66" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
       <c r="A67">
         <v>2</v>
       </c>
@@ -1326,8 +1539,11 @@
       <c r="D67">
         <v>2021</v>
       </c>
-    </row>
-    <row r="68" spans="1:4">
+      <c r="E67" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
       <c r="A68">
         <v>2</v>
       </c>
@@ -1340,8 +1556,11 @@
       <c r="D68">
         <v>2021</v>
       </c>
-    </row>
-    <row r="69" spans="1:4">
+      <c r="E68" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69">
         <v>3</v>
       </c>
@@ -1354,8 +1573,11 @@
       <c r="D69">
         <v>2021</v>
       </c>
-    </row>
-    <row r="70" spans="1:4">
+      <c r="E69" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70">
         <v>3</v>
       </c>
@@ -1368,8 +1590,11 @@
       <c r="D70">
         <v>2021</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
       <c r="A71">
         <v>3</v>
       </c>
@@ -1382,8 +1607,11 @@
       <c r="D71">
         <v>2021</v>
       </c>
-    </row>
-    <row r="72" spans="1:4">
+      <c r="E71" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
       <c r="A72">
         <v>4</v>
       </c>
@@ -1396,8 +1624,11 @@
       <c r="D72">
         <v>2021</v>
       </c>
-    </row>
-    <row r="73" spans="1:4">
+      <c r="E72" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
       <c r="A73">
         <v>4</v>
       </c>
@@ -1410,8 +1641,11 @@
       <c r="D73">
         <v>2021</v>
       </c>
-    </row>
-    <row r="74" spans="1:4">
+      <c r="E73" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
       <c r="A74">
         <v>4</v>
       </c>
@@ -1424,8 +1658,11 @@
       <c r="D74">
         <v>2021</v>
       </c>
-    </row>
-    <row r="75" spans="1:4">
+      <c r="E74" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
       <c r="A75">
         <v>5</v>
       </c>
@@ -1438,8 +1675,11 @@
       <c r="D75">
         <v>2021</v>
       </c>
-    </row>
-    <row r="76" spans="1:4">
+      <c r="E75" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
       <c r="A76">
         <v>5</v>
       </c>
@@ -1452,8 +1692,11 @@
       <c r="D76">
         <v>2021</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
       <c r="A77">
         <v>5</v>
       </c>
@@ -1466,8 +1709,11 @@
       <c r="D77">
         <v>2021</v>
       </c>
-    </row>
-    <row r="78" spans="1:4">
+      <c r="E77" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
       <c r="A78">
         <v>6</v>
       </c>
@@ -1480,8 +1726,11 @@
       <c r="D78">
         <v>2021</v>
       </c>
-    </row>
-    <row r="79" spans="1:4">
+      <c r="E78" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
       <c r="A79">
         <v>6</v>
       </c>
@@ -1494,8 +1743,11 @@
       <c r="D79">
         <v>2021</v>
       </c>
-    </row>
-    <row r="80" spans="1:4">
+      <c r="E79" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
       <c r="A80">
         <v>6</v>
       </c>
@@ -1508,8 +1760,11 @@
       <c r="D80">
         <v>2021</v>
       </c>
-    </row>
-    <row r="81" spans="1:4">
+      <c r="E80" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
       <c r="A81">
         <v>7</v>
       </c>
@@ -1522,8 +1777,11 @@
       <c r="D81">
         <v>2021</v>
       </c>
-    </row>
-    <row r="82" spans="1:4">
+      <c r="E81" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
       <c r="A82">
         <v>7</v>
       </c>
@@ -1536,8 +1794,11 @@
       <c r="D82">
         <v>2021</v>
       </c>
-    </row>
-    <row r="83" spans="1:4">
+      <c r="E82" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
       <c r="A83">
         <v>7</v>
       </c>
@@ -1550,8 +1811,11 @@
       <c r="D83">
         <v>2021</v>
       </c>
-    </row>
-    <row r="84" spans="1:4">
+      <c r="E83" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
       <c r="A84">
         <v>8</v>
       </c>
@@ -1564,8 +1828,11 @@
       <c r="D84">
         <v>2021</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
       <c r="A85">
         <v>8</v>
       </c>
@@ -1578,8 +1845,11 @@
       <c r="D85">
         <v>2021</v>
       </c>
-    </row>
-    <row r="86" spans="1:4">
+      <c r="E85" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
       <c r="A86">
         <v>8</v>
       </c>
@@ -1592,8 +1862,11 @@
       <c r="D86">
         <v>2021</v>
       </c>
-    </row>
-    <row r="87" spans="1:4">
+      <c r="E86" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
       <c r="A87">
         <v>9</v>
       </c>
@@ -1606,8 +1879,11 @@
       <c r="D87">
         <v>2021</v>
       </c>
-    </row>
-    <row r="88" spans="1:4">
+      <c r="E87" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
       <c r="A88">
         <v>9</v>
       </c>
@@ -1620,8 +1896,11 @@
       <c r="D88">
         <v>2021</v>
       </c>
-    </row>
-    <row r="89" spans="1:4">
+      <c r="E88" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
       <c r="A89">
         <v>9</v>
       </c>
@@ -1634,8 +1913,11 @@
       <c r="D89">
         <v>2021</v>
       </c>
-    </row>
-    <row r="90" spans="1:4">
+      <c r="E89" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
       <c r="A90">
         <v>10</v>
       </c>
@@ -1648,8 +1930,11 @@
       <c r="D90">
         <v>2021</v>
       </c>
-    </row>
-    <row r="91" spans="1:4">
+      <c r="E90" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
       <c r="A91">
         <v>10</v>
       </c>
@@ -1662,8 +1947,11 @@
       <c r="D91">
         <v>2021</v>
       </c>
-    </row>
-    <row r="92" spans="1:4">
+      <c r="E91" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
       <c r="A92">
         <v>10</v>
       </c>
@@ -1676,8 +1964,11 @@
       <c r="D92">
         <v>2021</v>
       </c>
-    </row>
-    <row r="93" spans="1:4">
+      <c r="E92" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
       <c r="A93">
         <v>11</v>
       </c>
@@ -1690,8 +1981,11 @@
       <c r="D93">
         <v>2021</v>
       </c>
-    </row>
-    <row r="94" spans="1:4">
+      <c r="E93" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
       <c r="A94">
         <v>11</v>
       </c>
@@ -1704,8 +1998,11 @@
       <c r="D94">
         <v>2021</v>
       </c>
-    </row>
-    <row r="95" spans="1:4">
+      <c r="E94" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
       <c r="A95">
         <v>11</v>
       </c>
@@ -1718,8 +2015,11 @@
       <c r="D95">
         <v>2021</v>
       </c>
-    </row>
-    <row r="96" spans="1:4">
+      <c r="E95" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
       <c r="A96">
         <v>12</v>
       </c>
@@ -1732,8 +2032,11 @@
       <c r="D96">
         <v>2021</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
       <c r="A97">
         <v>12</v>
       </c>
@@ -1746,8 +2049,11 @@
       <c r="D97">
         <v>2021</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
       <c r="A98">
         <v>12</v>
       </c>
@@ -1760,8 +2066,11 @@
       <c r="D98">
         <v>2021</v>
       </c>
-    </row>
-    <row r="99" spans="1:4">
+      <c r="E98" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
       <c r="A99">
         <v>1</v>
       </c>
@@ -1774,8 +2083,11 @@
       <c r="D99">
         <v>2022</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
       <c r="A100">
         <v>1</v>
       </c>
@@ -1788,8 +2100,11 @@
       <c r="D100">
         <v>2022</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
       <c r="A101">
         <v>1</v>
       </c>
@@ -1802,8 +2117,11 @@
       <c r="D101">
         <v>2022</v>
       </c>
-    </row>
-    <row r="102" spans="1:4">
+      <c r="E101" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
       <c r="A102">
         <v>2</v>
       </c>
@@ -1816,8 +2134,11 @@
       <c r="D102">
         <v>2022</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
       <c r="A103">
         <v>2</v>
       </c>
@@ -1830,8 +2151,11 @@
       <c r="D103">
         <v>2022</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
       <c r="A104">
         <v>2</v>
       </c>
@@ -1844,8 +2168,11 @@
       <c r="D104">
         <v>2022</v>
       </c>
-    </row>
-    <row r="105" spans="1:4">
+      <c r="E104" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
       <c r="A105">
         <v>3</v>
       </c>
@@ -1858,8 +2185,11 @@
       <c r="D105">
         <v>2022</v>
       </c>
-    </row>
-    <row r="106" spans="1:4">
+      <c r="E105" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
       <c r="A106">
         <v>3</v>
       </c>
@@ -1872,8 +2202,11 @@
       <c r="D106">
         <v>2022</v>
       </c>
-    </row>
-    <row r="107" spans="1:4">
+      <c r="E106" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
       <c r="A107">
         <v>3</v>
       </c>
@@ -1886,8 +2219,11 @@
       <c r="D107">
         <v>2022</v>
       </c>
-    </row>
-    <row r="108" spans="1:4">
+      <c r="E107" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
       <c r="A108">
         <v>4</v>
       </c>
@@ -1900,8 +2236,11 @@
       <c r="D108">
         <v>2022</v>
       </c>
-    </row>
-    <row r="109" spans="1:4">
+      <c r="E108" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
       <c r="A109">
         <v>4</v>
       </c>
@@ -1914,8 +2253,11 @@
       <c r="D109">
         <v>2022</v>
       </c>
-    </row>
-    <row r="110" spans="1:4">
+      <c r="E109" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
       <c r="A110">
         <v>4</v>
       </c>
@@ -1928,8 +2270,11 @@
       <c r="D110">
         <v>2022</v>
       </c>
-    </row>
-    <row r="111" spans="1:4">
+      <c r="E110" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
       <c r="A111">
         <v>5</v>
       </c>
@@ -1942,8 +2287,11 @@
       <c r="D111">
         <v>2022</v>
       </c>
-    </row>
-    <row r="112" spans="1:4">
+      <c r="E111" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
       <c r="A112">
         <v>5</v>
       </c>
@@ -1956,8 +2304,11 @@
       <c r="D112">
         <v>2022</v>
       </c>
-    </row>
-    <row r="113" spans="1:4">
+      <c r="E112" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
       <c r="A113">
         <v>5</v>
       </c>
@@ -1970,8 +2321,11 @@
       <c r="D113">
         <v>2022</v>
       </c>
-    </row>
-    <row r="114" spans="1:4">
+      <c r="E113" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
       <c r="A114">
         <v>6</v>
       </c>
@@ -1984,8 +2338,11 @@
       <c r="D114">
         <v>2022</v>
       </c>
-    </row>
-    <row r="115" spans="1:4">
+      <c r="E114" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
       <c r="A115">
         <v>6</v>
       </c>
@@ -1998,8 +2355,11 @@
       <c r="D115">
         <v>2022</v>
       </c>
-    </row>
-    <row r="116" spans="1:4">
+      <c r="E115" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
       <c r="A116">
         <v>6</v>
       </c>
@@ -2012,8 +2372,11 @@
       <c r="D116">
         <v>2022</v>
       </c>
-    </row>
-    <row r="117" spans="1:4">
+      <c r="E116" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
       <c r="A117">
         <v>7</v>
       </c>
@@ -2026,8 +2389,11 @@
       <c r="D117">
         <v>2022</v>
       </c>
-    </row>
-    <row r="118" spans="1:4">
+      <c r="E117" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
       <c r="A118">
         <v>7</v>
       </c>
@@ -2040,8 +2406,11 @@
       <c r="D118">
         <v>2022</v>
       </c>
-    </row>
-    <row r="119" spans="1:4">
+      <c r="E118" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
       <c r="A119">
         <v>7</v>
       </c>
@@ -2054,8 +2423,11 @@
       <c r="D119">
         <v>2022</v>
       </c>
-    </row>
-    <row r="120" spans="1:4">
+      <c r="E119" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
       <c r="A120">
         <v>8</v>
       </c>
@@ -2068,8 +2440,11 @@
       <c r="D120">
         <v>2022</v>
       </c>
-    </row>
-    <row r="121" spans="1:4">
+      <c r="E120" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
       <c r="A121">
         <v>8</v>
       </c>
@@ -2082,8 +2457,11 @@
       <c r="D121">
         <v>2022</v>
       </c>
-    </row>
-    <row r="122" spans="1:4">
+      <c r="E121" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
       <c r="A122">
         <v>8</v>
       </c>
@@ -2096,8 +2474,11 @@
       <c r="D122">
         <v>2022</v>
       </c>
-    </row>
-    <row r="123" spans="1:4">
+      <c r="E122" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
       <c r="A123">
         <v>8</v>
       </c>
@@ -2110,8 +2491,11 @@
       <c r="D123">
         <v>2022</v>
       </c>
-    </row>
-    <row r="124" spans="1:4">
+      <c r="E123" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
       <c r="A124">
         <v>9</v>
       </c>
@@ -2124,8 +2508,11 @@
       <c r="D124">
         <v>2022</v>
       </c>
-    </row>
-    <row r="125" spans="1:4">
+      <c r="E124" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
       <c r="A125">
         <v>9</v>
       </c>
@@ -2138,8 +2525,11 @@
       <c r="D125">
         <v>2022</v>
       </c>
-    </row>
-    <row r="126" spans="1:4">
+      <c r="E125" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
       <c r="A126">
         <v>9</v>
       </c>
@@ -2152,8 +2542,11 @@
       <c r="D126">
         <v>2022</v>
       </c>
-    </row>
-    <row r="127" spans="1:4">
+      <c r="E126" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
       <c r="A127">
         <v>9</v>
       </c>
@@ -2166,8 +2559,11 @@
       <c r="D127">
         <v>2022</v>
       </c>
-    </row>
-    <row r="128" spans="1:4">
+      <c r="E127" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
       <c r="A128">
         <v>10</v>
       </c>
@@ -2180,8 +2576,11 @@
       <c r="D128">
         <v>2022</v>
       </c>
-    </row>
-    <row r="129" spans="1:4">
+      <c r="E128" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
       <c r="A129">
         <v>10</v>
       </c>
@@ -2194,8 +2593,11 @@
       <c r="D129">
         <v>2022</v>
       </c>
-    </row>
-    <row r="130" spans="1:4">
+      <c r="E129" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
       <c r="A130">
         <v>10</v>
       </c>
@@ -2208,8 +2610,11 @@
       <c r="D130">
         <v>2022</v>
       </c>
-    </row>
-    <row r="131" spans="1:4">
+      <c r="E130" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
       <c r="A131">
         <v>10</v>
       </c>
@@ -2222,8 +2627,11 @@
       <c r="D131">
         <v>2022</v>
       </c>
-    </row>
-    <row r="132" spans="1:4">
+      <c r="E131" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
       <c r="A132">
         <v>11</v>
       </c>
@@ -2236,8 +2644,11 @@
       <c r="D132">
         <v>2022</v>
       </c>
-    </row>
-    <row r="133" spans="1:4">
+      <c r="E132" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
       <c r="A133">
         <v>11</v>
       </c>
@@ -2250,8 +2661,11 @@
       <c r="D133">
         <v>2022</v>
       </c>
-    </row>
-    <row r="134" spans="1:4">
+      <c r="E133" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
       <c r="A134">
         <v>11</v>
       </c>
@@ -2264,8 +2678,11 @@
       <c r="D134">
         <v>2022</v>
       </c>
-    </row>
-    <row r="135" spans="1:4">
+      <c r="E134" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
       <c r="A135">
         <v>11</v>
       </c>
@@ -2278,8 +2695,11 @@
       <c r="D135">
         <v>2022</v>
       </c>
-    </row>
-    <row r="136" spans="1:4">
+      <c r="E135" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
       <c r="A136">
         <v>12</v>
       </c>
@@ -2292,8 +2712,11 @@
       <c r="D136">
         <v>2022</v>
       </c>
-    </row>
-    <row r="137" spans="1:4">
+      <c r="E136" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
       <c r="A137">
         <v>12</v>
       </c>
@@ -2306,8 +2729,11 @@
       <c r="D137">
         <v>2022</v>
       </c>
-    </row>
-    <row r="138" spans="1:4">
+      <c r="E137" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
       <c r="A138">
         <v>12</v>
       </c>
@@ -2320,8 +2746,11 @@
       <c r="D138">
         <v>2022</v>
       </c>
-    </row>
-    <row r="139" spans="1:4">
+      <c r="E138" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
       <c r="A139">
         <v>12</v>
       </c>
@@ -2334,8 +2763,11 @@
       <c r="D139">
         <v>2022</v>
       </c>
-    </row>
-    <row r="140" spans="1:4">
+      <c r="E139" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
       <c r="A140">
         <v>1</v>
       </c>
@@ -2348,8 +2780,11 @@
       <c r="D140">
         <v>2023</v>
       </c>
-    </row>
-    <row r="141" spans="1:4">
+      <c r="E140" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
       <c r="A141">
         <v>1</v>
       </c>
@@ -2362,8 +2797,11 @@
       <c r="D141">
         <v>2023</v>
       </c>
-    </row>
-    <row r="142" spans="1:4">
+      <c r="E141" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
       <c r="A142">
         <v>1</v>
       </c>
@@ -2376,8 +2814,11 @@
       <c r="D142">
         <v>2023</v>
       </c>
-    </row>
-    <row r="143" spans="1:4">
+      <c r="E142" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
       <c r="A143">
         <v>1</v>
       </c>
@@ -2390,8 +2831,11 @@
       <c r="D143">
         <v>2023</v>
       </c>
-    </row>
-    <row r="144" spans="1:4">
+      <c r="E143" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
       <c r="A144">
         <v>2</v>
       </c>
@@ -2404,8 +2848,11 @@
       <c r="D144">
         <v>2023</v>
       </c>
-    </row>
-    <row r="145" spans="1:4">
+      <c r="E144" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
       <c r="A145">
         <v>2</v>
       </c>
@@ -2418,8 +2865,11 @@
       <c r="D145">
         <v>2023</v>
       </c>
-    </row>
-    <row r="146" spans="1:4">
+      <c r="E145" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
       <c r="A146">
         <v>2</v>
       </c>
@@ -2432,8 +2882,11 @@
       <c r="D146">
         <v>2023</v>
       </c>
-    </row>
-    <row r="147" spans="1:4">
+      <c r="E146" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
       <c r="A147">
         <v>2</v>
       </c>
@@ -2446,8 +2899,11 @@
       <c r="D147">
         <v>2023</v>
       </c>
-    </row>
-    <row r="148" spans="1:4">
+      <c r="E147" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
       <c r="A148">
         <v>3</v>
       </c>
@@ -2460,8 +2916,11 @@
       <c r="D148">
         <v>2023</v>
       </c>
-    </row>
-    <row r="149" spans="1:4">
+      <c r="E148" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
       <c r="A149">
         <v>3</v>
       </c>
@@ -2474,8 +2933,11 @@
       <c r="D149">
         <v>2023</v>
       </c>
-    </row>
-    <row r="150" spans="1:4">
+      <c r="E149" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
       <c r="A150">
         <v>3</v>
       </c>
@@ -2488,8 +2950,11 @@
       <c r="D150">
         <v>2023</v>
       </c>
-    </row>
-    <row r="151" spans="1:4">
+      <c r="E150" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
       <c r="A151">
         <v>3</v>
       </c>
@@ -2502,8 +2967,11 @@
       <c r="D151">
         <v>2023</v>
       </c>
-    </row>
-    <row r="152" spans="1:4">
+      <c r="E151" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
       <c r="A152">
         <v>4</v>
       </c>
@@ -2516,8 +2984,11 @@
       <c r="D152">
         <v>2023</v>
       </c>
-    </row>
-    <row r="153" spans="1:4">
+      <c r="E152" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
       <c r="A153">
         <v>4</v>
       </c>
@@ -2530,8 +3001,11 @@
       <c r="D153">
         <v>2023</v>
       </c>
-    </row>
-    <row r="154" spans="1:4">
+      <c r="E153" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
       <c r="A154">
         <v>4</v>
       </c>
@@ -2544,8 +3018,11 @@
       <c r="D154">
         <v>2023</v>
       </c>
-    </row>
-    <row r="155" spans="1:4">
+      <c r="E154" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
       <c r="A155">
         <v>4</v>
       </c>
@@ -2558,8 +3035,11 @@
       <c r="D155">
         <v>2023</v>
       </c>
-    </row>
-    <row r="156" spans="1:4">
+      <c r="E155" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
       <c r="A156">
         <v>5</v>
       </c>
@@ -2572,8 +3052,11 @@
       <c r="D156">
         <v>2023</v>
       </c>
-    </row>
-    <row r="157" spans="1:4">
+      <c r="E156" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
       <c r="A157">
         <v>5</v>
       </c>
@@ -2586,8 +3069,11 @@
       <c r="D157">
         <v>2023</v>
       </c>
-    </row>
-    <row r="158" spans="1:4">
+      <c r="E157" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
       <c r="A158">
         <v>5</v>
       </c>
@@ -2600,8 +3086,11 @@
       <c r="D158">
         <v>2023</v>
       </c>
-    </row>
-    <row r="159" spans="1:4">
+      <c r="E158" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
       <c r="A159">
         <v>5</v>
       </c>
@@ -2614,8 +3103,11 @@
       <c r="D159">
         <v>2023</v>
       </c>
-    </row>
-    <row r="160" spans="1:4">
+      <c r="E159" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
       <c r="A160">
         <v>6</v>
       </c>
@@ -2628,8 +3120,11 @@
       <c r="D160">
         <v>2023</v>
       </c>
-    </row>
-    <row r="161" spans="1:4">
+      <c r="E160" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
       <c r="A161">
         <v>6</v>
       </c>
@@ -2642,8 +3137,11 @@
       <c r="D161">
         <v>2023</v>
       </c>
-    </row>
-    <row r="162" spans="1:4">
+      <c r="E161" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
       <c r="A162">
         <v>6</v>
       </c>
@@ -2656,8 +3154,11 @@
       <c r="D162">
         <v>2023</v>
       </c>
-    </row>
-    <row r="163" spans="1:4">
+      <c r="E162" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
       <c r="A163">
         <v>6</v>
       </c>
@@ -2670,8 +3171,11 @@
       <c r="D163">
         <v>2023</v>
       </c>
-    </row>
-    <row r="164" spans="1:4">
+      <c r="E163" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
       <c r="A164">
         <v>7</v>
       </c>
@@ -2684,8 +3188,11 @@
       <c r="D164">
         <v>2023</v>
       </c>
-    </row>
-    <row r="165" spans="1:4">
+      <c r="E164" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
       <c r="A165">
         <v>7</v>
       </c>
@@ -2698,8 +3205,11 @@
       <c r="D165">
         <v>2023</v>
       </c>
-    </row>
-    <row r="166" spans="1:4">
+      <c r="E165" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
       <c r="A166">
         <v>7</v>
       </c>
@@ -2712,8 +3222,11 @@
       <c r="D166">
         <v>2023</v>
       </c>
-    </row>
-    <row r="167" spans="1:4">
+      <c r="E166" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
       <c r="A167">
         <v>7</v>
       </c>
@@ -2726,8 +3239,11 @@
       <c r="D167">
         <v>2023</v>
       </c>
-    </row>
-    <row r="168" spans="1:4">
+      <c r="E167" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
       <c r="A168">
         <v>8</v>
       </c>
@@ -2740,8 +3256,11 @@
       <c r="D168">
         <v>2023</v>
       </c>
-    </row>
-    <row r="169" spans="1:4">
+      <c r="E168" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
       <c r="A169">
         <v>8</v>
       </c>
@@ -2754,8 +3273,11 @@
       <c r="D169">
         <v>2023</v>
       </c>
-    </row>
-    <row r="170" spans="1:4">
+      <c r="E169" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
       <c r="A170">
         <v>8</v>
       </c>
@@ -2768,8 +3290,11 @@
       <c r="D170">
         <v>2023</v>
       </c>
-    </row>
-    <row r="171" spans="1:4">
+      <c r="E170" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
       <c r="A171">
         <v>8</v>
       </c>
@@ -2782,8 +3307,11 @@
       <c r="D171">
         <v>2023</v>
       </c>
-    </row>
-    <row r="172" spans="1:4">
+      <c r="E171" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
       <c r="A172">
         <v>9</v>
       </c>
@@ -2796,8 +3324,11 @@
       <c r="D172">
         <v>2023</v>
       </c>
-    </row>
-    <row r="173" spans="1:4">
+      <c r="E172" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
       <c r="A173">
         <v>9</v>
       </c>
@@ -2810,8 +3341,11 @@
       <c r="D173">
         <v>2023</v>
       </c>
-    </row>
-    <row r="174" spans="1:4">
+      <c r="E173" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
       <c r="A174">
         <v>9</v>
       </c>
@@ -2824,8 +3358,11 @@
       <c r="D174">
         <v>2023</v>
       </c>
-    </row>
-    <row r="175" spans="1:4">
+      <c r="E174" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
       <c r="A175">
         <v>9</v>
       </c>
@@ -2838,8 +3375,11 @@
       <c r="D175">
         <v>2023</v>
       </c>
-    </row>
-    <row r="176" spans="1:4">
+      <c r="E175" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
       <c r="A176">
         <v>10</v>
       </c>
@@ -2852,8 +3392,11 @@
       <c r="D176">
         <v>2023</v>
       </c>
-    </row>
-    <row r="177" spans="1:4">
+      <c r="E176" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
       <c r="A177">
         <v>10</v>
       </c>
@@ -2866,8 +3409,11 @@
       <c r="D177">
         <v>2023</v>
       </c>
-    </row>
-    <row r="178" spans="1:4">
+      <c r="E177" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
       <c r="A178">
         <v>10</v>
       </c>
@@ -2880,8 +3426,11 @@
       <c r="D178">
         <v>2023</v>
       </c>
-    </row>
-    <row r="179" spans="1:4">
+      <c r="E178" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
       <c r="A179">
         <v>10</v>
       </c>
@@ -2894,8 +3443,11 @@
       <c r="D179">
         <v>2023</v>
       </c>
-    </row>
-    <row r="180" spans="1:4">
+      <c r="E179" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
       <c r="A180">
         <v>11</v>
       </c>
@@ -2908,8 +3460,11 @@
       <c r="D180">
         <v>2023</v>
       </c>
-    </row>
-    <row r="181" spans="1:4">
+      <c r="E180" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
       <c r="A181">
         <v>11</v>
       </c>
@@ -2922,8 +3477,11 @@
       <c r="D181">
         <v>2023</v>
       </c>
-    </row>
-    <row r="182" spans="1:4">
+      <c r="E181" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
       <c r="A182">
         <v>11</v>
       </c>
@@ -2936,8 +3494,11 @@
       <c r="D182">
         <v>2023</v>
       </c>
-    </row>
-    <row r="183" spans="1:4">
+      <c r="E182" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
       <c r="A183">
         <v>11</v>
       </c>
@@ -2950,8 +3511,11 @@
       <c r="D183">
         <v>2023</v>
       </c>
-    </row>
-    <row r="184" spans="1:4">
+      <c r="E183" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
       <c r="A184">
         <v>12</v>
       </c>
@@ -2964,8 +3528,11 @@
       <c r="D184">
         <v>2023</v>
       </c>
-    </row>
-    <row r="185" spans="1:4">
+      <c r="E184" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
       <c r="A185">
         <v>12</v>
       </c>
@@ -2978,8 +3545,11 @@
       <c r="D185">
         <v>2023</v>
       </c>
-    </row>
-    <row r="186" spans="1:4">
+      <c r="E185" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
       <c r="A186">
         <v>12</v>
       </c>
@@ -2992,8 +3562,11 @@
       <c r="D186">
         <v>2023</v>
       </c>
-    </row>
-    <row r="187" spans="1:4">
+      <c r="E186" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
       <c r="A187">
         <v>12</v>
       </c>
@@ -3006,8 +3579,11 @@
       <c r="D187">
         <v>2023</v>
       </c>
-    </row>
-    <row r="188" spans="1:4">
+      <c r="E187" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
       <c r="A188">
         <v>1</v>
       </c>
@@ -3020,8 +3596,11 @@
       <c r="D188">
         <v>2024</v>
       </c>
-    </row>
-    <row r="189" spans="1:4">
+      <c r="E188" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
       <c r="A189">
         <v>1</v>
       </c>
@@ -3034,8 +3613,11 @@
       <c r="D189">
         <v>2024</v>
       </c>
-    </row>
-    <row r="190" spans="1:4">
+      <c r="E189" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
       <c r="A190">
         <v>1</v>
       </c>
@@ -3048,8 +3630,11 @@
       <c r="D190">
         <v>2024</v>
       </c>
-    </row>
-    <row r="191" spans="1:4">
+      <c r="E190" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
       <c r="A191">
         <v>1</v>
       </c>
@@ -3062,8 +3647,11 @@
       <c r="D191">
         <v>2024</v>
       </c>
-    </row>
-    <row r="192" spans="1:4">
+      <c r="E191" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
       <c r="A192">
         <v>2</v>
       </c>
@@ -3076,8 +3664,11 @@
       <c r="D192">
         <v>2024</v>
       </c>
-    </row>
-    <row r="193" spans="1:4">
+      <c r="E192" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
       <c r="A193">
         <v>2</v>
       </c>
@@ -3090,8 +3681,11 @@
       <c r="D193">
         <v>2024</v>
       </c>
-    </row>
-    <row r="194" spans="1:4">
+      <c r="E193" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
       <c r="A194">
         <v>2</v>
       </c>
@@ -3104,8 +3698,11 @@
       <c r="D194">
         <v>2024</v>
       </c>
-    </row>
-    <row r="195" spans="1:4">
+      <c r="E194" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
       <c r="A195">
         <v>2</v>
       </c>
@@ -3118,8 +3715,11 @@
       <c r="D195">
         <v>2024</v>
       </c>
-    </row>
-    <row r="196" spans="1:4">
+      <c r="E195" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
       <c r="A196">
         <v>3</v>
       </c>
@@ -3132,8 +3732,11 @@
       <c r="D196">
         <v>2024</v>
       </c>
-    </row>
-    <row r="197" spans="1:4">
+      <c r="E196" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
       <c r="A197">
         <v>3</v>
       </c>
@@ -3146,8 +3749,11 @@
       <c r="D197">
         <v>2024</v>
       </c>
-    </row>
-    <row r="198" spans="1:4">
+      <c r="E197" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
       <c r="A198">
         <v>3</v>
       </c>
@@ -3160,8 +3766,11 @@
       <c r="D198">
         <v>2024</v>
       </c>
-    </row>
-    <row r="199" spans="1:4">
+      <c r="E198" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
       <c r="A199">
         <v>3</v>
       </c>
@@ -3174,8 +3783,11 @@
       <c r="D199">
         <v>2024</v>
       </c>
-    </row>
-    <row r="200" spans="1:4">
+      <c r="E199" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
       <c r="A200">
         <v>4</v>
       </c>
@@ -3188,8 +3800,11 @@
       <c r="D200">
         <v>2024</v>
       </c>
-    </row>
-    <row r="201" spans="1:4">
+      <c r="E200" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
       <c r="A201">
         <v>4</v>
       </c>
@@ -3202,8 +3817,11 @@
       <c r="D201">
         <v>2024</v>
       </c>
-    </row>
-    <row r="202" spans="1:4">
+      <c r="E201" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
       <c r="A202">
         <v>4</v>
       </c>
@@ -3216,8 +3834,11 @@
       <c r="D202">
         <v>2024</v>
       </c>
-    </row>
-    <row r="203" spans="1:4">
+      <c r="E202" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
       <c r="A203">
         <v>4</v>
       </c>
@@ -3230,8 +3851,11 @@
       <c r="D203">
         <v>2024</v>
       </c>
-    </row>
-    <row r="204" spans="1:4">
+      <c r="E203" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
       <c r="A204">
         <v>5</v>
       </c>
@@ -3244,8 +3868,11 @@
       <c r="D204">
         <v>2024</v>
       </c>
-    </row>
-    <row r="205" spans="1:4">
+      <c r="E204" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
       <c r="A205">
         <v>5</v>
       </c>
@@ -3258,8 +3885,11 @@
       <c r="D205">
         <v>2024</v>
       </c>
-    </row>
-    <row r="206" spans="1:4">
+      <c r="E205" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
       <c r="A206">
         <v>5</v>
       </c>
@@ -3272,8 +3902,11 @@
       <c r="D206">
         <v>2024</v>
       </c>
-    </row>
-    <row r="207" spans="1:4">
+      <c r="E206" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
       <c r="A207">
         <v>5</v>
       </c>
@@ -3286,8 +3919,11 @@
       <c r="D207">
         <v>2024</v>
       </c>
-    </row>
-    <row r="208" spans="1:4">
+      <c r="E207" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
       <c r="A208">
         <v>6</v>
       </c>
@@ -3300,8 +3936,11 @@
       <c r="D208">
         <v>2024</v>
       </c>
-    </row>
-    <row r="209" spans="1:4">
+      <c r="E208" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
       <c r="A209">
         <v>6</v>
       </c>
@@ -3314,8 +3953,11 @@
       <c r="D209">
         <v>2024</v>
       </c>
-    </row>
-    <row r="210" spans="1:4">
+      <c r="E209" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
       <c r="A210">
         <v>6</v>
       </c>
@@ -3328,8 +3970,11 @@
       <c r="D210">
         <v>2024</v>
       </c>
-    </row>
-    <row r="211" spans="1:4">
+      <c r="E210" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
       <c r="A211">
         <v>6</v>
       </c>
@@ -3342,8 +3987,11 @@
       <c r="D211">
         <v>2024</v>
       </c>
-    </row>
-    <row r="212" spans="1:4">
+      <c r="E211" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
       <c r="A212">
         <v>7</v>
       </c>
@@ -3356,8 +4004,11 @@
       <c r="D212">
         <v>2024</v>
       </c>
-    </row>
-    <row r="213" spans="1:4">
+      <c r="E212" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
       <c r="A213">
         <v>7</v>
       </c>
@@ -3370,8 +4021,11 @@
       <c r="D213">
         <v>2024</v>
       </c>
-    </row>
-    <row r="214" spans="1:4">
+      <c r="E213" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
       <c r="A214">
         <v>7</v>
       </c>
@@ -3384,8 +4038,11 @@
       <c r="D214">
         <v>2024</v>
       </c>
-    </row>
-    <row r="215" spans="1:4">
+      <c r="E214" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
       <c r="A215">
         <v>7</v>
       </c>
@@ -3398,8 +4055,11 @@
       <c r="D215">
         <v>2024</v>
       </c>
-    </row>
-    <row r="216" spans="1:4">
+      <c r="E215" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
       <c r="A216">
         <v>8</v>
       </c>
@@ -3412,8 +4072,11 @@
       <c r="D216">
         <v>2024</v>
       </c>
-    </row>
-    <row r="217" spans="1:4">
+      <c r="E216" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
       <c r="A217">
         <v>8</v>
       </c>
@@ -3426,8 +4089,11 @@
       <c r="D217">
         <v>2024</v>
       </c>
-    </row>
-    <row r="218" spans="1:4">
+      <c r="E217" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
       <c r="A218">
         <v>8</v>
       </c>
@@ -3440,8 +4106,11 @@
       <c r="D218">
         <v>2024</v>
       </c>
-    </row>
-    <row r="219" spans="1:4">
+      <c r="E218" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
       <c r="A219">
         <v>8</v>
       </c>
@@ -3454,8 +4123,11 @@
       <c r="D219">
         <v>2024</v>
       </c>
-    </row>
-    <row r="220" spans="1:4">
+      <c r="E219" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
       <c r="A220">
         <v>9</v>
       </c>
@@ -3468,8 +4140,11 @@
       <c r="D220">
         <v>2024</v>
       </c>
-    </row>
-    <row r="221" spans="1:4">
+      <c r="E220" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
       <c r="A221">
         <v>9</v>
       </c>
@@ -3482,8 +4157,11 @@
       <c r="D221">
         <v>2024</v>
       </c>
-    </row>
-    <row r="222" spans="1:4">
+      <c r="E221" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
       <c r="A222">
         <v>9</v>
       </c>
@@ -3496,8 +4174,11 @@
       <c r="D222">
         <v>2024</v>
       </c>
-    </row>
-    <row r="223" spans="1:4">
+      <c r="E222" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
       <c r="A223">
         <v>9</v>
       </c>
@@ -3510,8 +4191,11 @@
       <c r="D223">
         <v>2024</v>
       </c>
-    </row>
-    <row r="224" spans="1:4">
+      <c r="E223" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
       <c r="A224">
         <v>10</v>
       </c>
@@ -3524,8 +4208,11 @@
       <c r="D224">
         <v>2024</v>
       </c>
-    </row>
-    <row r="225" spans="1:4">
+      <c r="E224" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
       <c r="A225">
         <v>10</v>
       </c>
@@ -3538,8 +4225,11 @@
       <c r="D225">
         <v>2024</v>
       </c>
-    </row>
-    <row r="226" spans="1:4">
+      <c r="E225" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
       <c r="A226">
         <v>10</v>
       </c>
@@ -3552,8 +4242,11 @@
       <c r="D226">
         <v>2024</v>
       </c>
-    </row>
-    <row r="227" spans="1:4">
+      <c r="E226" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
       <c r="A227">
         <v>10</v>
       </c>
@@ -3566,8 +4259,11 @@
       <c r="D227">
         <v>2024</v>
       </c>
-    </row>
-    <row r="228" spans="1:4">
+      <c r="E227" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
       <c r="A228">
         <v>11</v>
       </c>
@@ -3580,8 +4276,11 @@
       <c r="D228">
         <v>2024</v>
       </c>
-    </row>
-    <row r="229" spans="1:4">
+      <c r="E228" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
       <c r="A229">
         <v>11</v>
       </c>
@@ -3594,8 +4293,11 @@
       <c r="D229">
         <v>2024</v>
       </c>
-    </row>
-    <row r="230" spans="1:4">
+      <c r="E229" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
       <c r="A230">
         <v>11</v>
       </c>
@@ -3608,8 +4310,11 @@
       <c r="D230">
         <v>2024</v>
       </c>
-    </row>
-    <row r="231" spans="1:4">
+      <c r="E230" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
       <c r="A231">
         <v>11</v>
       </c>
@@ -3622,8 +4327,11 @@
       <c r="D231">
         <v>2024</v>
       </c>
-    </row>
-    <row r="232" spans="1:4">
+      <c r="E231" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
       <c r="A232">
         <v>12</v>
       </c>
@@ -3636,8 +4344,11 @@
       <c r="D232">
         <v>2024</v>
       </c>
-    </row>
-    <row r="233" spans="1:4">
+      <c r="E232" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
       <c r="A233">
         <v>12</v>
       </c>
@@ -3650,8 +4361,11 @@
       <c r="D233">
         <v>2024</v>
       </c>
-    </row>
-    <row r="234" spans="1:4">
+      <c r="E233" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
       <c r="A234">
         <v>12</v>
       </c>
@@ -3664,8 +4378,11 @@
       <c r="D234">
         <v>2024</v>
       </c>
-    </row>
-    <row r="235" spans="1:4">
+      <c r="E234" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
       <c r="A235">
         <v>12</v>
       </c>
@@ -3678,8 +4395,11 @@
       <c r="D235">
         <v>2024</v>
       </c>
-    </row>
-    <row r="236" spans="1:4">
+      <c r="E235" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
       <c r="A236">
         <v>1</v>
       </c>
@@ -3692,8 +4412,11 @@
       <c r="D236">
         <v>2025</v>
       </c>
-    </row>
-    <row r="237" spans="1:4">
+      <c r="E236" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
       <c r="A237">
         <v>1</v>
       </c>
@@ -3706,8 +4429,11 @@
       <c r="D237">
         <v>2025</v>
       </c>
-    </row>
-    <row r="238" spans="1:4">
+      <c r="E237" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
       <c r="A238">
         <v>1</v>
       </c>
@@ -3720,8 +4446,11 @@
       <c r="D238">
         <v>2025</v>
       </c>
-    </row>
-    <row r="239" spans="1:4">
+      <c r="E238" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
       <c r="A239">
         <v>1</v>
       </c>
@@ -3734,8 +4463,11 @@
       <c r="D239">
         <v>2025</v>
       </c>
-    </row>
-    <row r="240" spans="1:4">
+      <c r="E239" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
       <c r="A240">
         <v>2</v>
       </c>
@@ -3748,8 +4480,11 @@
       <c r="D240">
         <v>2025</v>
       </c>
-    </row>
-    <row r="241" spans="1:4">
+      <c r="E240" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
       <c r="A241">
         <v>2</v>
       </c>
@@ -3762,8 +4497,11 @@
       <c r="D241">
         <v>2025</v>
       </c>
-    </row>
-    <row r="242" spans="1:4">
+      <c r="E241" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
       <c r="A242">
         <v>2</v>
       </c>
@@ -3776,8 +4514,11 @@
       <c r="D242">
         <v>2025</v>
       </c>
-    </row>
-    <row r="243" spans="1:4">
+      <c r="E242" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
       <c r="A243">
         <v>2</v>
       </c>
@@ -3790,8 +4531,11 @@
       <c r="D243">
         <v>2025</v>
       </c>
-    </row>
-    <row r="244" spans="1:4">
+      <c r="E243" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
       <c r="A244">
         <v>3</v>
       </c>
@@ -3804,8 +4548,11 @@
       <c r="D244">
         <v>2025</v>
       </c>
-    </row>
-    <row r="245" spans="1:4">
+      <c r="E244" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
       <c r="A245">
         <v>3</v>
       </c>
@@ -3818,8 +4565,11 @@
       <c r="D245">
         <v>2025</v>
       </c>
-    </row>
-    <row r="246" spans="1:4">
+      <c r="E245" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5">
       <c r="A246">
         <v>3</v>
       </c>
@@ -3832,8 +4582,11 @@
       <c r="D246">
         <v>2025</v>
       </c>
-    </row>
-    <row r="247" spans="1:4">
+      <c r="E246" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5">
       <c r="A247">
         <v>3</v>
       </c>
@@ -3846,8 +4599,11 @@
       <c r="D247">
         <v>2025</v>
       </c>
-    </row>
-    <row r="248" spans="1:4">
+      <c r="E247" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5">
       <c r="A248">
         <v>4</v>
       </c>
@@ -3860,8 +4616,11 @@
       <c r="D248">
         <v>2025</v>
       </c>
-    </row>
-    <row r="249" spans="1:4">
+      <c r="E248" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5">
       <c r="A249">
         <v>4</v>
       </c>
@@ -3874,8 +4633,11 @@
       <c r="D249">
         <v>2025</v>
       </c>
-    </row>
-    <row r="250" spans="1:4">
+      <c r="E249" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5">
       <c r="A250">
         <v>4</v>
       </c>
@@ -3888,8 +4650,11 @@
       <c r="D250">
         <v>2025</v>
       </c>
-    </row>
-    <row r="251" spans="1:4">
+      <c r="E250" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5">
       <c r="A251">
         <v>4</v>
       </c>
@@ -3901,6 +4666,9 @@
       </c>
       <c r="D251">
         <v>2025</v>
+      </c>
+      <c r="E251" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
@@ -4611,7 +4611,7 @@
         <v>1</v>
       </c>
       <c r="C248">
-        <v>247089.07</v>
+        <v>261462.34</v>
       </c>
       <c r="D248">
         <v>2025</v>
@@ -4628,7 +4628,7 @@
         <v>2</v>
       </c>
       <c r="C249">
-        <v>89253.5</v>
+        <v>94604.5</v>
       </c>
       <c r="D249">
         <v>2025</v>
@@ -4645,7 +4645,7 @@
         <v>3</v>
       </c>
       <c r="C250">
-        <v>100409.05</v>
+        <v>106704.05</v>
       </c>
       <c r="D250">
         <v>2025</v>
@@ -4662,7 +4662,7 @@
         <v>4</v>
       </c>
       <c r="C251">
-        <v>74862.84</v>
+        <v>79901.84</v>
       </c>
       <c r="D251">
         <v>2025</v>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="9">
   <si>
     <t>Mês</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E251"/>
+  <dimension ref="A1:E255"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4611,7 +4611,7 @@
         <v>1</v>
       </c>
       <c r="C248">
-        <v>261462.34</v>
+        <v>271101.06</v>
       </c>
       <c r="D248">
         <v>2025</v>
@@ -4628,7 +4628,7 @@
         <v>2</v>
       </c>
       <c r="C249">
-        <v>94604.5</v>
+        <v>97761</v>
       </c>
       <c r="D249">
         <v>2025</v>
@@ -4645,7 +4645,7 @@
         <v>3</v>
       </c>
       <c r="C250">
-        <v>106704.05</v>
+        <v>116177.05</v>
       </c>
       <c r="D250">
         <v>2025</v>
@@ -4662,12 +4662,80 @@
         <v>4</v>
       </c>
       <c r="C251">
-        <v>79901.84</v>
+        <v>82407.5</v>
       </c>
       <c r="D251">
         <v>2025</v>
       </c>
       <c r="E251" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5">
+      <c r="A252">
+        <v>5</v>
+      </c>
+      <c r="B252">
+        <v>1</v>
+      </c>
+      <c r="C252">
+        <v>52798.18</v>
+      </c>
+      <c r="D252">
+        <v>2025</v>
+      </c>
+      <c r="E252" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5">
+      <c r="A253">
+        <v>5</v>
+      </c>
+      <c r="B253">
+        <v>2</v>
+      </c>
+      <c r="C253">
+        <v>18395.5</v>
+      </c>
+      <c r="D253">
+        <v>2025</v>
+      </c>
+      <c r="E253" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="A254">
+        <v>5</v>
+      </c>
+      <c r="B254">
+        <v>3</v>
+      </c>
+      <c r="C254">
+        <v>39550.8</v>
+      </c>
+      <c r="D254">
+        <v>2025</v>
+      </c>
+      <c r="E254" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5">
+      <c r="A255">
+        <v>5</v>
+      </c>
+      <c r="B255">
+        <v>4</v>
+      </c>
+      <c r="C255">
+        <v>15862.08</v>
+      </c>
+      <c r="D255">
+        <v>2025</v>
+      </c>
+      <c r="E255" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
@@ -752,7 +752,7 @@
         <v>1</v>
       </c>
       <c r="C21">
-        <v>83694.92999999999</v>
+        <v>83694.93000000001</v>
       </c>
       <c r="D21">
         <v>2019</v>
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="C127">
-        <v>87935.82000000001</v>
+        <v>87935.81999999999</v>
       </c>
       <c r="D127">
         <v>2022</v>
@@ -4679,7 +4679,7 @@
         <v>1</v>
       </c>
       <c r="C252">
-        <v>52798.18</v>
+        <v>102210.91</v>
       </c>
       <c r="D252">
         <v>2025</v>
@@ -4696,7 +4696,7 @@
         <v>2</v>
       </c>
       <c r="C253">
-        <v>18395.5</v>
+        <v>37276.89</v>
       </c>
       <c r="D253">
         <v>2025</v>
@@ -4713,7 +4713,7 @@
         <v>3</v>
       </c>
       <c r="C254">
-        <v>39550.8</v>
+        <v>73319.8</v>
       </c>
       <c r="D254">
         <v>2025</v>
@@ -4730,7 +4730,7 @@
         <v>4</v>
       </c>
       <c r="C255">
-        <v>15862.08</v>
+        <v>33509.11</v>
       </c>
       <c r="D255">
         <v>2025</v>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
@@ -4679,7 +4679,7 @@
         <v>1</v>
       </c>
       <c r="C252">
-        <v>102210.91</v>
+        <v>125706.34</v>
       </c>
       <c r="D252">
         <v>2025</v>
@@ -4696,7 +4696,7 @@
         <v>2</v>
       </c>
       <c r="C253">
-        <v>37276.89</v>
+        <v>39974.89</v>
       </c>
       <c r="D253">
         <v>2025</v>
@@ -4713,7 +4713,7 @@
         <v>3</v>
       </c>
       <c r="C254">
-        <v>73319.8</v>
+        <v>75669.8</v>
       </c>
       <c r="D254">
         <v>2025</v>
@@ -4730,7 +4730,7 @@
         <v>4</v>
       </c>
       <c r="C255">
-        <v>33509.11</v>
+        <v>36211.12</v>
       </c>
       <c r="D255">
         <v>2025</v>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
@@ -4679,7 +4679,7 @@
         <v>1</v>
       </c>
       <c r="C252">
-        <v>125706.34</v>
+        <v>139414.29</v>
       </c>
       <c r="D252">
         <v>2025</v>
@@ -4696,7 +4696,7 @@
         <v>2</v>
       </c>
       <c r="C253">
-        <v>39974.89</v>
+        <v>43206.79</v>
       </c>
       <c r="D253">
         <v>2025</v>
@@ -4713,7 +4713,7 @@
         <v>3</v>
       </c>
       <c r="C254">
-        <v>75669.8</v>
+        <v>82146.8</v>
       </c>
       <c r="D254">
         <v>2025</v>
@@ -4730,7 +4730,7 @@
         <v>4</v>
       </c>
       <c r="C255">
-        <v>36211.12</v>
+        <v>39233.13</v>
       </c>
       <c r="D255">
         <v>2025</v>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
@@ -4679,7 +4679,7 @@
         <v>1</v>
       </c>
       <c r="C252">
-        <v>139414.29</v>
+        <v>161641.12</v>
       </c>
       <c r="D252">
         <v>2025</v>
@@ -4696,7 +4696,7 @@
         <v>2</v>
       </c>
       <c r="C253">
-        <v>43206.79</v>
+        <v>44767.79</v>
       </c>
       <c r="D253">
         <v>2025</v>
@@ -4713,7 +4713,7 @@
         <v>3</v>
       </c>
       <c r="C254">
-        <v>82146.8</v>
+        <v>88631.7</v>
       </c>
       <c r="D254">
         <v>2025</v>
@@ -4730,7 +4730,7 @@
         <v>4</v>
       </c>
       <c r="C255">
-        <v>39233.13</v>
+        <v>45369.58</v>
       </c>
       <c r="D255">
         <v>2025</v>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
@@ -4679,7 +4679,7 @@
         <v>1</v>
       </c>
       <c r="C252">
-        <v>161641.12</v>
+        <v>189407.06</v>
       </c>
       <c r="D252">
         <v>2025</v>
@@ -4696,7 +4696,7 @@
         <v>2</v>
       </c>
       <c r="C253">
-        <v>44767.79</v>
+        <v>60516.19</v>
       </c>
       <c r="D253">
         <v>2025</v>
@@ -4713,7 +4713,7 @@
         <v>3</v>
       </c>
       <c r="C254">
-        <v>88631.7</v>
+        <v>117315.7</v>
       </c>
       <c r="D254">
         <v>2025</v>
@@ -4730,7 +4730,7 @@
         <v>4</v>
       </c>
       <c r="C255">
-        <v>45369.58</v>
+        <v>60627.6</v>
       </c>
       <c r="D255">
         <v>2025</v>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
@@ -4679,7 +4679,7 @@
         <v>1</v>
       </c>
       <c r="C252">
-        <v>189407.06</v>
+        <v>203720.73</v>
       </c>
       <c r="D252">
         <v>2025</v>
@@ -4696,7 +4696,7 @@
         <v>2</v>
       </c>
       <c r="C253">
-        <v>60516.19</v>
+        <v>62647.19</v>
       </c>
       <c r="D253">
         <v>2025</v>
@@ -4713,7 +4713,7 @@
         <v>3</v>
       </c>
       <c r="C254">
-        <v>117315.7</v>
+        <v>122204.7</v>
       </c>
       <c r="D254">
         <v>2025</v>
@@ -4730,7 +4730,7 @@
         <v>4</v>
       </c>
       <c r="C255">
-        <v>60627.6</v>
+        <v>66899.60000000001</v>
       </c>
       <c r="D255">
         <v>2025</v>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
@@ -4679,7 +4679,7 @@
         <v>1</v>
       </c>
       <c r="C252">
-        <v>203720.73</v>
+        <v>238595.79</v>
       </c>
       <c r="D252">
         <v>2025</v>
@@ -4696,7 +4696,7 @@
         <v>2</v>
       </c>
       <c r="C253">
-        <v>62647.19</v>
+        <v>65508.19</v>
       </c>
       <c r="D253">
         <v>2025</v>
@@ -4713,7 +4713,7 @@
         <v>3</v>
       </c>
       <c r="C254">
-        <v>122204.7</v>
+        <v>138572.6</v>
       </c>
       <c r="D254">
         <v>2025</v>
@@ -4730,7 +4730,7 @@
         <v>4</v>
       </c>
       <c r="C255">
-        <v>66899.60000000001</v>
+        <v>70572.60000000001</v>
       </c>
       <c r="D255">
         <v>2025</v>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
@@ -4679,7 +4679,7 @@
         <v>1</v>
       </c>
       <c r="C252">
-        <v>238595.79</v>
+        <v>255048.39</v>
       </c>
       <c r="D252">
         <v>2025</v>
@@ -4696,7 +4696,7 @@
         <v>2</v>
       </c>
       <c r="C253">
-        <v>65508.19</v>
+        <v>68978.67999999999</v>
       </c>
       <c r="D253">
         <v>2025</v>
@@ -4713,7 +4713,7 @@
         <v>3</v>
       </c>
       <c r="C254">
-        <v>138572.6</v>
+        <v>144110.6</v>
       </c>
       <c r="D254">
         <v>2025</v>
@@ -4730,7 +4730,7 @@
         <v>4</v>
       </c>
       <c r="C255">
-        <v>70572.60000000001</v>
+        <v>73566.3</v>
       </c>
       <c r="D255">
         <v>2025</v>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
@@ -4679,7 +4679,7 @@
         <v>1</v>
       </c>
       <c r="C252">
-        <v>255048.39</v>
+        <v>275560.78</v>
       </c>
       <c r="D252">
         <v>2025</v>
@@ -4696,7 +4696,7 @@
         <v>2</v>
       </c>
       <c r="C253">
-        <v>68978.67999999999</v>
+        <v>76326.48</v>
       </c>
       <c r="D253">
         <v>2025</v>
@@ -4713,7 +4713,7 @@
         <v>3</v>
       </c>
       <c r="C254">
-        <v>144110.6</v>
+        <v>167944.3</v>
       </c>
       <c r="D254">
         <v>2025</v>
@@ -4730,7 +4730,7 @@
         <v>4</v>
       </c>
       <c r="C255">
-        <v>73566.3</v>
+        <v>82302.32000000001</v>
       </c>
       <c r="D255">
         <v>2025</v>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
@@ -4679,7 +4679,7 @@
         <v>1</v>
       </c>
       <c r="C252">
-        <v>275560.78</v>
+        <v>290748.54</v>
       </c>
       <c r="D252">
         <v>2025</v>
@@ -4696,7 +4696,7 @@
         <v>2</v>
       </c>
       <c r="C253">
-        <v>76326.48</v>
+        <v>79827.48</v>
       </c>
       <c r="D253">
         <v>2025</v>
@@ -4713,7 +4713,7 @@
         <v>3</v>
       </c>
       <c r="C254">
-        <v>167944.3</v>
+        <v>173119.3</v>
       </c>
       <c r="D254">
         <v>2025</v>
@@ -4730,7 +4730,7 @@
         <v>4</v>
       </c>
       <c r="C255">
-        <v>82302.32000000001</v>
+        <v>87970.33</v>
       </c>
       <c r="D255">
         <v>2025</v>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
@@ -4679,7 +4679,7 @@
         <v>1</v>
       </c>
       <c r="C252">
-        <v>290748.54</v>
+        <v>295780.85</v>
       </c>
       <c r="D252">
         <v>2025</v>
@@ -4696,7 +4696,7 @@
         <v>2</v>
       </c>
       <c r="C253">
-        <v>79827.48</v>
+        <v>81397.48</v>
       </c>
       <c r="D253">
         <v>2025</v>
@@ -4713,7 +4713,7 @@
         <v>3</v>
       </c>
       <c r="C254">
-        <v>173119.3</v>
+        <v>186925.3</v>
       </c>
       <c r="D254">
         <v>2025</v>
@@ -4730,7 +4730,7 @@
         <v>4</v>
       </c>
       <c r="C255">
-        <v>87970.33</v>
+        <v>91718.33</v>
       </c>
       <c r="D255">
         <v>2025</v>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
@@ -4679,7 +4679,7 @@
         <v>1</v>
       </c>
       <c r="C252">
-        <v>295780.85</v>
+        <v>307481.48</v>
       </c>
       <c r="D252">
         <v>2025</v>
@@ -4696,7 +4696,7 @@
         <v>2</v>
       </c>
       <c r="C253">
-        <v>81397.48</v>
+        <v>82795.48</v>
       </c>
       <c r="D253">
         <v>2025</v>
@@ -4713,7 +4713,7 @@
         <v>3</v>
       </c>
       <c r="C254">
-        <v>186925.3</v>
+        <v>193807.3</v>
       </c>
       <c r="D254">
         <v>2025</v>
@@ -4730,7 +4730,7 @@
         <v>4</v>
       </c>
       <c r="C255">
-        <v>91718.33</v>
+        <v>93357.33</v>
       </c>
       <c r="D255">
         <v>2025</v>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
@@ -4679,7 +4679,7 @@
         <v>1</v>
       </c>
       <c r="C252">
-        <v>307481.48</v>
+        <v>318409.23</v>
       </c>
       <c r="D252">
         <v>2025</v>
@@ -4696,7 +4696,7 @@
         <v>2</v>
       </c>
       <c r="C253">
-        <v>82795.48</v>
+        <v>84358.48</v>
       </c>
       <c r="D253">
         <v>2025</v>
@@ -4713,7 +4713,7 @@
         <v>3</v>
       </c>
       <c r="C254">
-        <v>193807.3</v>
+        <v>198184.3</v>
       </c>
       <c r="D254">
         <v>2025</v>
@@ -4730,7 +4730,7 @@
         <v>4</v>
       </c>
       <c r="C255">
-        <v>93357.33</v>
+        <v>96472.33</v>
       </c>
       <c r="D255">
         <v>2025</v>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="9">
   <si>
     <t>Mês</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E255"/>
+  <dimension ref="A1:E257"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4679,7 +4679,7 @@
         <v>1</v>
       </c>
       <c r="C252">
-        <v>318409.23</v>
+        <v>332052.35</v>
       </c>
       <c r="D252">
         <v>2025</v>
@@ -4696,7 +4696,7 @@
         <v>2</v>
       </c>
       <c r="C253">
-        <v>84358.48</v>
+        <v>91747.38</v>
       </c>
       <c r="D253">
         <v>2025</v>
@@ -4713,7 +4713,7 @@
         <v>3</v>
       </c>
       <c r="C254">
-        <v>198184.3</v>
+        <v>216021.3</v>
       </c>
       <c r="D254">
         <v>2025</v>
@@ -4730,12 +4730,46 @@
         <v>4</v>
       </c>
       <c r="C255">
-        <v>96472.33</v>
+        <v>102229.33</v>
       </c>
       <c r="D255">
         <v>2025</v>
       </c>
       <c r="E255" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5">
+      <c r="A256">
+        <v>6</v>
+      </c>
+      <c r="B256">
+        <v>2</v>
+      </c>
+      <c r="C256">
+        <v>3340</v>
+      </c>
+      <c r="D256">
+        <v>2025</v>
+      </c>
+      <c r="E256" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5">
+      <c r="A257">
+        <v>6</v>
+      </c>
+      <c r="B257">
+        <v>4</v>
+      </c>
+      <c r="C257">
+        <v>1800.01</v>
+      </c>
+      <c r="D257">
+        <v>2025</v>
+      </c>
+      <c r="E257" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="9">
   <si>
     <t>Mês</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E257"/>
+  <dimension ref="A1:E259"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4696,7 +4696,7 @@
         <v>2</v>
       </c>
       <c r="C253">
-        <v>91747.38</v>
+        <v>93020.38</v>
       </c>
       <c r="D253">
         <v>2025</v>
@@ -4730,7 +4730,7 @@
         <v>4</v>
       </c>
       <c r="C255">
-        <v>102229.33</v>
+        <v>102609.33</v>
       </c>
       <c r="D255">
         <v>2025</v>
@@ -4744,16 +4744,16 @@
         <v>6</v>
       </c>
       <c r="B256">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C256">
-        <v>3340</v>
+        <v>17144.8</v>
       </c>
       <c r="D256">
         <v>2025</v>
       </c>
       <c r="E256" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -4761,15 +4761,49 @@
         <v>6</v>
       </c>
       <c r="B257">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C257">
-        <v>1800.01</v>
+        <v>4714</v>
       </c>
       <c r="D257">
         <v>2025</v>
       </c>
       <c r="E257" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="A258">
+        <v>6</v>
+      </c>
+      <c r="B258">
+        <v>3</v>
+      </c>
+      <c r="C258">
+        <v>4464</v>
+      </c>
+      <c r="D258">
+        <v>2025</v>
+      </c>
+      <c r="E258" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5">
+      <c r="A259">
+        <v>6</v>
+      </c>
+      <c r="B259">
+        <v>4</v>
+      </c>
+      <c r="C259">
+        <v>6470.01</v>
+      </c>
+      <c r="D259">
+        <v>2025</v>
+      </c>
+      <c r="E259" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
@@ -4747,7 +4747,7 @@
         <v>1</v>
       </c>
       <c r="C256">
-        <v>17144.8</v>
+        <v>34498.04</v>
       </c>
       <c r="D256">
         <v>2025</v>
@@ -4764,7 +4764,7 @@
         <v>2</v>
       </c>
       <c r="C257">
-        <v>4714</v>
+        <v>7648</v>
       </c>
       <c r="D257">
         <v>2025</v>
@@ -4781,7 +4781,7 @@
         <v>3</v>
       </c>
       <c r="C258">
-        <v>4464</v>
+        <v>7665</v>
       </c>
       <c r="D258">
         <v>2025</v>
@@ -4798,7 +4798,7 @@
         <v>4</v>
       </c>
       <c r="C259">
-        <v>6470.01</v>
+        <v>8218.52</v>
       </c>
       <c r="D259">
         <v>2025</v>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
@@ -4747,7 +4747,7 @@
         <v>1</v>
       </c>
       <c r="C256">
-        <v>34498.04</v>
+        <v>59650.5</v>
       </c>
       <c r="D256">
         <v>2025</v>
@@ -4764,7 +4764,7 @@
         <v>2</v>
       </c>
       <c r="C257">
-        <v>7648</v>
+        <v>9060</v>
       </c>
       <c r="D257">
         <v>2025</v>
@@ -4781,7 +4781,7 @@
         <v>3</v>
       </c>
       <c r="C258">
-        <v>7665</v>
+        <v>11291</v>
       </c>
       <c r="D258">
         <v>2025</v>
@@ -4798,7 +4798,7 @@
         <v>4</v>
       </c>
       <c r="C259">
-        <v>8218.52</v>
+        <v>13545.52</v>
       </c>
       <c r="D259">
         <v>2025</v>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
@@ -4747,7 +4747,7 @@
         <v>1</v>
       </c>
       <c r="C256">
-        <v>59650.5</v>
+        <v>71495.85000000001</v>
       </c>
       <c r="D256">
         <v>2025</v>
@@ -4764,7 +4764,7 @@
         <v>2</v>
       </c>
       <c r="C257">
-        <v>9060</v>
+        <v>12115</v>
       </c>
       <c r="D257">
         <v>2025</v>
@@ -4781,7 +4781,7 @@
         <v>3</v>
       </c>
       <c r="C258">
-        <v>11291</v>
+        <v>15529</v>
       </c>
       <c r="D258">
         <v>2025</v>
@@ -4798,7 +4798,7 @@
         <v>4</v>
       </c>
       <c r="C259">
-        <v>13545.52</v>
+        <v>16812.52</v>
       </c>
       <c r="D259">
         <v>2025</v>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
@@ -4747,7 +4747,7 @@
         <v>1</v>
       </c>
       <c r="C256">
-        <v>71495.85000000001</v>
+        <v>82434.75999999999</v>
       </c>
       <c r="D256">
         <v>2025</v>
@@ -4764,7 +4764,7 @@
         <v>2</v>
       </c>
       <c r="C257">
-        <v>12115</v>
+        <v>19215.4</v>
       </c>
       <c r="D257">
         <v>2025</v>
@@ -4781,7 +4781,7 @@
         <v>3</v>
       </c>
       <c r="C258">
-        <v>15529</v>
+        <v>28097.5</v>
       </c>
       <c r="D258">
         <v>2025</v>
@@ -4798,7 +4798,7 @@
         <v>4</v>
       </c>
       <c r="C259">
-        <v>16812.52</v>
+        <v>20774.02</v>
       </c>
       <c r="D259">
         <v>2025</v>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
@@ -4764,7 +4764,7 @@
         <v>2</v>
       </c>
       <c r="C257">
-        <v>19215.4</v>
+        <v>22545.3</v>
       </c>
       <c r="D257">
         <v>2025</v>
@@ -4798,7 +4798,7 @@
         <v>4</v>
       </c>
       <c r="C259">
-        <v>20774.02</v>
+        <v>22387.02</v>
       </c>
       <c r="D259">
         <v>2025</v>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
@@ -4747,7 +4747,7 @@
         <v>1</v>
       </c>
       <c r="C256">
-        <v>82434.75999999999</v>
+        <v>95792.11</v>
       </c>
       <c r="D256">
         <v>2025</v>
@@ -4764,7 +4764,7 @@
         <v>2</v>
       </c>
       <c r="C257">
-        <v>22545.3</v>
+        <v>26583.3</v>
       </c>
       <c r="D257">
         <v>2025</v>
@@ -4781,7 +4781,7 @@
         <v>3</v>
       </c>
       <c r="C258">
-        <v>28097.5</v>
+        <v>31773</v>
       </c>
       <c r="D258">
         <v>2025</v>
@@ -4798,7 +4798,7 @@
         <v>4</v>
       </c>
       <c r="C259">
-        <v>22387.02</v>
+        <v>25173.04</v>
       </c>
       <c r="D259">
         <v>2025</v>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
@@ -4747,7 +4747,7 @@
         <v>1</v>
       </c>
       <c r="C256">
-        <v>95792.11</v>
+        <v>108865.76</v>
       </c>
       <c r="D256">
         <v>2025</v>
@@ -4764,7 +4764,7 @@
         <v>2</v>
       </c>
       <c r="C257">
-        <v>26583.3</v>
+        <v>29414.2</v>
       </c>
       <c r="D257">
         <v>2025</v>
@@ -4781,7 +4781,7 @@
         <v>3</v>
       </c>
       <c r="C258">
-        <v>31773</v>
+        <v>41025.95</v>
       </c>
       <c r="D258">
         <v>2025</v>
@@ -4798,7 +4798,7 @@
         <v>4</v>
       </c>
       <c r="C259">
-        <v>25173.04</v>
+        <v>31270.54</v>
       </c>
       <c r="D259">
         <v>2025</v>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
@@ -4747,7 +4747,7 @@
         <v>1</v>
       </c>
       <c r="C256">
-        <v>108865.76</v>
+        <v>125516.31</v>
       </c>
       <c r="D256">
         <v>2025</v>
@@ -4764,7 +4764,7 @@
         <v>2</v>
       </c>
       <c r="C257">
-        <v>29414.2</v>
+        <v>32939.2</v>
       </c>
       <c r="D257">
         <v>2025</v>
@@ -4781,7 +4781,7 @@
         <v>3</v>
       </c>
       <c r="C258">
-        <v>41025.95</v>
+        <v>50455.4</v>
       </c>
       <c r="D258">
         <v>2025</v>
@@ -4798,7 +4798,7 @@
         <v>4</v>
       </c>
       <c r="C259">
-        <v>31270.54</v>
+        <v>34784.9</v>
       </c>
       <c r="D259">
         <v>2025</v>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
@@ -4747,7 +4747,7 @@
         <v>1</v>
       </c>
       <c r="C256">
-        <v>125516.31</v>
+        <v>148378.57</v>
       </c>
       <c r="D256">
         <v>2025</v>
@@ -4764,7 +4764,7 @@
         <v>2</v>
       </c>
       <c r="C257">
-        <v>32939.2</v>
+        <v>35361.2</v>
       </c>
       <c r="D257">
         <v>2025</v>
@@ -4781,7 +4781,7 @@
         <v>3</v>
       </c>
       <c r="C258">
-        <v>50455.4</v>
+        <v>58579.9</v>
       </c>
       <c r="D258">
         <v>2025</v>
@@ -4798,7 +4798,7 @@
         <v>4</v>
       </c>
       <c r="C259">
-        <v>34784.9</v>
+        <v>40219.77</v>
       </c>
       <c r="D259">
         <v>2025</v>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
@@ -4747,7 +4747,7 @@
         <v>1</v>
       </c>
       <c r="C256">
-        <v>148378.57</v>
+        <v>164012.96</v>
       </c>
       <c r="D256">
         <v>2025</v>
@@ -4764,7 +4764,7 @@
         <v>2</v>
       </c>
       <c r="C257">
-        <v>35361.2</v>
+        <v>37489.2</v>
       </c>
       <c r="D257">
         <v>2025</v>
@@ -4781,7 +4781,7 @@
         <v>3</v>
       </c>
       <c r="C258">
-        <v>58579.9</v>
+        <v>61454.8</v>
       </c>
       <c r="D258">
         <v>2025</v>
@@ -4798,7 +4798,7 @@
         <v>4</v>
       </c>
       <c r="C259">
-        <v>40219.77</v>
+        <v>41697.77</v>
       </c>
       <c r="D259">
         <v>2025</v>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
@@ -4747,7 +4747,7 @@
         <v>1</v>
       </c>
       <c r="C256">
-        <v>164012.96</v>
+        <v>167649.86</v>
       </c>
       <c r="D256">
         <v>2025</v>
@@ -4764,7 +4764,7 @@
         <v>2</v>
       </c>
       <c r="C257">
-        <v>37489.2</v>
+        <v>46405.2</v>
       </c>
       <c r="D257">
         <v>2025</v>
@@ -4781,7 +4781,7 @@
         <v>3</v>
       </c>
       <c r="C258">
-        <v>61454.8</v>
+        <v>75525.8</v>
       </c>
       <c r="D258">
         <v>2025</v>
@@ -4798,7 +4798,7 @@
         <v>4</v>
       </c>
       <c r="C259">
-        <v>41697.77</v>
+        <v>47569.69</v>
       </c>
       <c r="D259">
         <v>2025</v>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
@@ -4747,7 +4747,7 @@
         <v>1</v>
       </c>
       <c r="C256">
-        <v>167649.86</v>
+        <v>185911.26</v>
       </c>
       <c r="D256">
         <v>2025</v>
@@ -4764,7 +4764,7 @@
         <v>2</v>
       </c>
       <c r="C257">
-        <v>46405.2</v>
+        <v>49004.2</v>
       </c>
       <c r="D257">
         <v>2025</v>
@@ -4781,7 +4781,7 @@
         <v>3</v>
       </c>
       <c r="C258">
-        <v>75525.8</v>
+        <v>80407.8</v>
       </c>
       <c r="D258">
         <v>2025</v>
@@ -4798,7 +4798,7 @@
         <v>4</v>
       </c>
       <c r="C259">
-        <v>47569.69</v>
+        <v>50341.69</v>
       </c>
       <c r="D259">
         <v>2025</v>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
@@ -4747,7 +4747,7 @@
         <v>1</v>
       </c>
       <c r="C256">
-        <v>185911.26</v>
+        <v>195021.05</v>
       </c>
       <c r="D256">
         <v>2025</v>
@@ -4764,7 +4764,7 @@
         <v>2</v>
       </c>
       <c r="C257">
-        <v>49004.2</v>
+        <v>51750.2</v>
       </c>
       <c r="D257">
         <v>2025</v>
@@ -4781,7 +4781,7 @@
         <v>3</v>
       </c>
       <c r="C258">
-        <v>80407.8</v>
+        <v>84869.8</v>
       </c>
       <c r="D258">
         <v>2025</v>
@@ -4798,7 +4798,7 @@
         <v>4</v>
       </c>
       <c r="C259">
-        <v>50341.69</v>
+        <v>52122.69</v>
       </c>
       <c r="D259">
         <v>2025</v>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
@@ -4747,7 +4747,7 @@
         <v>1</v>
       </c>
       <c r="C256">
-        <v>195021.05</v>
+        <v>218130.4</v>
       </c>
       <c r="D256">
         <v>2025</v>
@@ -4764,7 +4764,7 @@
         <v>2</v>
       </c>
       <c r="C257">
-        <v>51750.2</v>
+        <v>58730.1</v>
       </c>
       <c r="D257">
         <v>2025</v>
@@ -4781,7 +4781,7 @@
         <v>3</v>
       </c>
       <c r="C258">
-        <v>84869.8</v>
+        <v>96719.2</v>
       </c>
       <c r="D258">
         <v>2025</v>
@@ -4798,7 +4798,7 @@
         <v>4</v>
       </c>
       <c r="C259">
-        <v>52122.69</v>
+        <v>54379.19</v>
       </c>
       <c r="D259">
         <v>2025</v>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
@@ -4747,7 +4747,7 @@
         <v>1</v>
       </c>
       <c r="C256">
-        <v>218130.4</v>
+        <v>227433.75</v>
       </c>
       <c r="D256">
         <v>2025</v>
@@ -4764,7 +4764,7 @@
         <v>2</v>
       </c>
       <c r="C257">
-        <v>58730.1</v>
+        <v>69753.60000000001</v>
       </c>
       <c r="D257">
         <v>2025</v>
@@ -4781,7 +4781,7 @@
         <v>3</v>
       </c>
       <c r="C258">
-        <v>96719.2</v>
+        <v>106284.2</v>
       </c>
       <c r="D258">
         <v>2025</v>
@@ -4798,7 +4798,7 @@
         <v>4</v>
       </c>
       <c r="C259">
-        <v>54379.19</v>
+        <v>59630.7</v>
       </c>
       <c r="D259">
         <v>2025</v>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
@@ -4747,7 +4747,7 @@
         <v>1</v>
       </c>
       <c r="C256">
-        <v>227433.75</v>
+        <v>243620.22</v>
       </c>
       <c r="D256">
         <v>2025</v>
@@ -4764,7 +4764,7 @@
         <v>2</v>
       </c>
       <c r="C257">
-        <v>69753.60000000001</v>
+        <v>71870.60000000001</v>
       </c>
       <c r="D257">
         <v>2025</v>
@@ -4781,7 +4781,7 @@
         <v>3</v>
       </c>
       <c r="C258">
-        <v>106284.2</v>
+        <v>109805.19</v>
       </c>
       <c r="D258">
         <v>2025</v>
@@ -4798,7 +4798,7 @@
         <v>4</v>
       </c>
       <c r="C259">
-        <v>59630.7</v>
+        <v>62989.5</v>
       </c>
       <c r="D259">
         <v>2025</v>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
@@ -4747,7 +4747,7 @@
         <v>1</v>
       </c>
       <c r="C256">
-        <v>243620.22</v>
+        <v>254265.14</v>
       </c>
       <c r="D256">
         <v>2025</v>
@@ -4764,7 +4764,7 @@
         <v>2</v>
       </c>
       <c r="C257">
-        <v>71870.60000000001</v>
+        <v>76014.60000000001</v>
       </c>
       <c r="D257">
         <v>2025</v>
@@ -4781,7 +4781,7 @@
         <v>3</v>
       </c>
       <c r="C258">
-        <v>109805.19</v>
+        <v>114948.09</v>
       </c>
       <c r="D258">
         <v>2025</v>
@@ -4798,7 +4798,7 @@
         <v>4</v>
       </c>
       <c r="C259">
-        <v>62989.5</v>
+        <v>65660.5</v>
       </c>
       <c r="D259">
         <v>2025</v>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
@@ -4747,7 +4747,7 @@
         <v>1</v>
       </c>
       <c r="C256">
-        <v>254265.14</v>
+        <v>264772.74</v>
       </c>
       <c r="D256">
         <v>2025</v>
@@ -4764,7 +4764,7 @@
         <v>2</v>
       </c>
       <c r="C257">
-        <v>76014.60000000001</v>
+        <v>77394.35000000001</v>
       </c>
       <c r="D257">
         <v>2025</v>
@@ -4781,7 +4781,7 @@
         <v>3</v>
       </c>
       <c r="C258">
-        <v>114948.09</v>
+        <v>120530.09</v>
       </c>
       <c r="D258">
         <v>2025</v>
@@ -4798,7 +4798,7 @@
         <v>4</v>
       </c>
       <c r="C259">
-        <v>65660.5</v>
+        <v>68371.61</v>
       </c>
       <c r="D259">
         <v>2025</v>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
@@ -4747,7 +4747,7 @@
         <v>1</v>
       </c>
       <c r="C256">
-        <v>264772.74</v>
+        <v>273326.15</v>
       </c>
       <c r="D256">
         <v>2025</v>
@@ -4764,7 +4764,7 @@
         <v>2</v>
       </c>
       <c r="C257">
-        <v>77394.35000000001</v>
+        <v>79963.35000000001</v>
       </c>
       <c r="D257">
         <v>2025</v>
@@ -4781,7 +4781,7 @@
         <v>3</v>
       </c>
       <c r="C258">
-        <v>120530.09</v>
+        <v>141813.59</v>
       </c>
       <c r="D258">
         <v>2025</v>
@@ -4798,7 +4798,7 @@
         <v>4</v>
       </c>
       <c r="C259">
-        <v>68371.61</v>
+        <v>74625.00999999999</v>
       </c>
       <c r="D259">
         <v>2025</v>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
@@ -4747,7 +4747,7 @@
         <v>1</v>
       </c>
       <c r="C256">
-        <v>273326.15</v>
+        <v>284807.17</v>
       </c>
       <c r="D256">
         <v>2025</v>
@@ -4764,7 +4764,7 @@
         <v>2</v>
       </c>
       <c r="C257">
-        <v>79963.35000000001</v>
+        <v>86918.25</v>
       </c>
       <c r="D257">
         <v>2025</v>
@@ -4781,7 +4781,7 @@
         <v>3</v>
       </c>
       <c r="C258">
-        <v>141813.59</v>
+        <v>149960.99</v>
       </c>
       <c r="D258">
         <v>2025</v>
@@ -4798,7 +4798,7 @@
         <v>4</v>
       </c>
       <c r="C259">
-        <v>74625.00999999999</v>
+        <v>88280.71000000001</v>
       </c>
       <c r="D259">
         <v>2025</v>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
@@ -4747,7 +4747,7 @@
         <v>1</v>
       </c>
       <c r="C256">
-        <v>284807.17</v>
+        <v>301430.49</v>
       </c>
       <c r="D256">
         <v>2025</v>
@@ -4764,7 +4764,7 @@
         <v>2</v>
       </c>
       <c r="C257">
-        <v>86918.25</v>
+        <v>88496.14999999999</v>
       </c>
       <c r="D257">
         <v>2025</v>
@@ -4781,7 +4781,7 @@
         <v>3</v>
       </c>
       <c r="C258">
-        <v>149960.99</v>
+        <v>154689.89</v>
       </c>
       <c r="D258">
         <v>2025</v>
@@ -4798,7 +4798,7 @@
         <v>4</v>
       </c>
       <c r="C259">
-        <v>88280.71000000001</v>
+        <v>89679.71000000001</v>
       </c>
       <c r="D259">
         <v>2025</v>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="9">
   <si>
     <t>Mês</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E259"/>
+  <dimension ref="A1:E263"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4807,6 +4807,74 @@
         <v>8</v>
       </c>
     </row>
+    <row r="260" spans="1:5">
+      <c r="A260">
+        <v>7</v>
+      </c>
+      <c r="B260">
+        <v>1</v>
+      </c>
+      <c r="C260">
+        <v>6805.15</v>
+      </c>
+      <c r="D260">
+        <v>2025</v>
+      </c>
+      <c r="E260" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5">
+      <c r="A261">
+        <v>7</v>
+      </c>
+      <c r="B261">
+        <v>2</v>
+      </c>
+      <c r="C261">
+        <v>2251</v>
+      </c>
+      <c r="D261">
+        <v>2025</v>
+      </c>
+      <c r="E261" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5">
+      <c r="A262">
+        <v>7</v>
+      </c>
+      <c r="B262">
+        <v>3</v>
+      </c>
+      <c r="C262">
+        <v>3638</v>
+      </c>
+      <c r="D262">
+        <v>2025</v>
+      </c>
+      <c r="E262" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="A263">
+        <v>7</v>
+      </c>
+      <c r="B263">
+        <v>4</v>
+      </c>
+      <c r="C263">
+        <v>4535.01</v>
+      </c>
+      <c r="D263">
+        <v>2025</v>
+      </c>
+      <c r="E263" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
@@ -4815,7 +4815,7 @@
         <v>1</v>
       </c>
       <c r="C260">
-        <v>6805.15</v>
+        <v>18540.55</v>
       </c>
       <c r="D260">
         <v>2025</v>
@@ -4832,7 +4832,7 @@
         <v>2</v>
       </c>
       <c r="C261">
-        <v>2251</v>
+        <v>6189</v>
       </c>
       <c r="D261">
         <v>2025</v>
@@ -4849,7 +4849,7 @@
         <v>3</v>
       </c>
       <c r="C262">
-        <v>3638</v>
+        <v>6918.25</v>
       </c>
       <c r="D262">
         <v>2025</v>
@@ -4866,7 +4866,7 @@
         <v>4</v>
       </c>
       <c r="C263">
-        <v>4535.01</v>
+        <v>6551.01</v>
       </c>
       <c r="D263">
         <v>2025</v>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
@@ -4815,7 +4815,7 @@
         <v>1</v>
       </c>
       <c r="C260">
-        <v>18540.55</v>
+        <v>30754.27</v>
       </c>
       <c r="D260">
         <v>2025</v>
@@ -4832,7 +4832,7 @@
         <v>2</v>
       </c>
       <c r="C261">
-        <v>6189</v>
+        <v>9272</v>
       </c>
       <c r="D261">
         <v>2025</v>
@@ -4849,7 +4849,7 @@
         <v>3</v>
       </c>
       <c r="C262">
-        <v>6918.25</v>
+        <v>12385.05</v>
       </c>
       <c r="D262">
         <v>2025</v>
@@ -4866,7 +4866,7 @@
         <v>4</v>
       </c>
       <c r="C263">
-        <v>6551.01</v>
+        <v>9354.82</v>
       </c>
       <c r="D263">
         <v>2025</v>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
@@ -4815,7 +4815,7 @@
         <v>1</v>
       </c>
       <c r="C260">
-        <v>30754.27</v>
+        <v>46934.31</v>
       </c>
       <c r="D260">
         <v>2025</v>
@@ -4832,7 +4832,7 @@
         <v>2</v>
       </c>
       <c r="C261">
-        <v>9272</v>
+        <v>21863.9</v>
       </c>
       <c r="D261">
         <v>2025</v>
@@ -4849,7 +4849,7 @@
         <v>3</v>
       </c>
       <c r="C262">
-        <v>12385.05</v>
+        <v>19470.05</v>
       </c>
       <c r="D262">
         <v>2025</v>
@@ -4866,7 +4866,7 @@
         <v>4</v>
       </c>
       <c r="C263">
-        <v>9354.82</v>
+        <v>19660.52</v>
       </c>
       <c r="D263">
         <v>2025</v>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
@@ -4815,7 +4815,7 @@
         <v>1</v>
       </c>
       <c r="C260">
-        <v>46934.31</v>
+        <v>57060.47</v>
       </c>
       <c r="D260">
         <v>2025</v>
@@ -4832,7 +4832,7 @@
         <v>2</v>
       </c>
       <c r="C261">
-        <v>21863.9</v>
+        <v>25540.9</v>
       </c>
       <c r="D261">
         <v>2025</v>
@@ -4849,7 +4849,7 @@
         <v>3</v>
       </c>
       <c r="C262">
-        <v>19470.05</v>
+        <v>23567.55</v>
       </c>
       <c r="D262">
         <v>2025</v>
@@ -4866,7 +4866,7 @@
         <v>4</v>
       </c>
       <c r="C263">
-        <v>19660.52</v>
+        <v>21677.53</v>
       </c>
       <c r="D263">
         <v>2025</v>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
@@ -4815,7 +4815,7 @@
         <v>1</v>
       </c>
       <c r="C260">
-        <v>57060.47</v>
+        <v>66497.78</v>
       </c>
       <c r="D260">
         <v>2025</v>
@@ -4832,7 +4832,7 @@
         <v>2</v>
       </c>
       <c r="C261">
-        <v>25540.9</v>
+        <v>27043.9</v>
       </c>
       <c r="D261">
         <v>2025</v>
@@ -4849,7 +4849,7 @@
         <v>3</v>
       </c>
       <c r="C262">
-        <v>23567.55</v>
+        <v>28339.55</v>
       </c>
       <c r="D262">
         <v>2025</v>
@@ -4866,7 +4866,7 @@
         <v>4</v>
       </c>
       <c r="C263">
-        <v>21677.53</v>
+        <v>25541.03</v>
       </c>
       <c r="D263">
         <v>2025</v>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
@@ -4815,7 +4815,7 @@
         <v>1</v>
       </c>
       <c r="C260">
-        <v>66497.78</v>
+        <v>75591.73</v>
       </c>
       <c r="D260">
         <v>2025</v>
@@ -4832,7 +4832,7 @@
         <v>2</v>
       </c>
       <c r="C261">
-        <v>27043.9</v>
+        <v>28619.4</v>
       </c>
       <c r="D261">
         <v>2025</v>
@@ -4849,7 +4849,7 @@
         <v>3</v>
       </c>
       <c r="C262">
-        <v>28339.55</v>
+        <v>34160.05</v>
       </c>
       <c r="D262">
         <v>2025</v>
@@ -4866,7 +4866,7 @@
         <v>4</v>
       </c>
       <c r="C263">
-        <v>25541.03</v>
+        <v>27365.05</v>
       </c>
       <c r="D263">
         <v>2025</v>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
@@ -4815,7 +4815,7 @@
         <v>1</v>
       </c>
       <c r="C260">
-        <v>75591.73</v>
+        <v>87704.73</v>
       </c>
       <c r="D260">
         <v>2025</v>
@@ -4832,7 +4832,7 @@
         <v>2</v>
       </c>
       <c r="C261">
-        <v>28619.4</v>
+        <v>31754.4</v>
       </c>
       <c r="D261">
         <v>2025</v>
@@ -4849,7 +4849,7 @@
         <v>3</v>
       </c>
       <c r="C262">
-        <v>34160.05</v>
+        <v>37926.05</v>
       </c>
       <c r="D262">
         <v>2025</v>
@@ -4866,7 +4866,7 @@
         <v>4</v>
       </c>
       <c r="C263">
-        <v>27365.05</v>
+        <v>29617.05</v>
       </c>
       <c r="D263">
         <v>2025</v>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
@@ -4815,7 +4815,7 @@
         <v>1</v>
       </c>
       <c r="C260">
-        <v>87704.73</v>
+        <v>106227.95</v>
       </c>
       <c r="D260">
         <v>2025</v>
@@ -4832,7 +4832,7 @@
         <v>2</v>
       </c>
       <c r="C261">
-        <v>31754.4</v>
+        <v>41272.4</v>
       </c>
       <c r="D261">
         <v>2025</v>
@@ -4849,7 +4849,7 @@
         <v>3</v>
       </c>
       <c r="C262">
-        <v>37926.05</v>
+        <v>44714.05</v>
       </c>
       <c r="D262">
         <v>2025</v>
@@ -4866,7 +4866,7 @@
         <v>4</v>
       </c>
       <c r="C263">
-        <v>29617.05</v>
+        <v>33221.85</v>
       </c>
       <c r="D263">
         <v>2025</v>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
@@ -4815,7 +4815,7 @@
         <v>1</v>
       </c>
       <c r="C260">
-        <v>106227.95</v>
+        <v>120454.79</v>
       </c>
       <c r="D260">
         <v>2025</v>
@@ -4832,7 +4832,7 @@
         <v>2</v>
       </c>
       <c r="C261">
-        <v>41272.4</v>
+        <v>44149.9</v>
       </c>
       <c r="D261">
         <v>2025</v>
@@ -4849,7 +4849,7 @@
         <v>3</v>
       </c>
       <c r="C262">
-        <v>44714.05</v>
+        <v>46967.11</v>
       </c>
       <c r="D262">
         <v>2025</v>
@@ -4866,7 +4866,7 @@
         <v>4</v>
       </c>
       <c r="C263">
-        <v>33221.85</v>
+        <v>35142.86</v>
       </c>
       <c r="D263">
         <v>2025</v>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
@@ -4815,7 +4815,7 @@
         <v>1</v>
       </c>
       <c r="C260">
-        <v>120454.79</v>
+        <v>134011.82</v>
       </c>
       <c r="D260">
         <v>2025</v>
@@ -4832,7 +4832,7 @@
         <v>2</v>
       </c>
       <c r="C261">
-        <v>44149.9</v>
+        <v>46206.9</v>
       </c>
       <c r="D261">
         <v>2025</v>
@@ -4849,7 +4849,7 @@
         <v>3</v>
       </c>
       <c r="C262">
-        <v>46967.11</v>
+        <v>56967.11</v>
       </c>
       <c r="D262">
         <v>2025</v>
@@ -4866,7 +4866,7 @@
         <v>4</v>
       </c>
       <c r="C263">
-        <v>35142.86</v>
+        <v>41663.87</v>
       </c>
       <c r="D263">
         <v>2025</v>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
@@ -4815,7 +4815,7 @@
         <v>1</v>
       </c>
       <c r="C260">
-        <v>134011.82</v>
+        <v>143842.84</v>
       </c>
       <c r="D260">
         <v>2025</v>
@@ -4832,7 +4832,7 @@
         <v>2</v>
       </c>
       <c r="C261">
-        <v>46206.9</v>
+        <v>49381.9</v>
       </c>
       <c r="D261">
         <v>2025</v>
@@ -4849,7 +4849,7 @@
         <v>3</v>
       </c>
       <c r="C262">
-        <v>56967.11</v>
+        <v>71922.00999999999</v>
       </c>
       <c r="D262">
         <v>2025</v>
@@ -4866,7 +4866,7 @@
         <v>4</v>
       </c>
       <c r="C263">
-        <v>41663.87</v>
+        <v>44567.87</v>
       </c>
       <c r="D263">
         <v>2025</v>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
@@ -4815,7 +4815,7 @@
         <v>1</v>
       </c>
       <c r="C260">
-        <v>143842.84</v>
+        <v>151943.76</v>
       </c>
       <c r="D260">
         <v>2025</v>
@@ -4832,7 +4832,7 @@
         <v>2</v>
       </c>
       <c r="C261">
-        <v>49381.9</v>
+        <v>51739.9</v>
       </c>
       <c r="D261">
         <v>2025</v>
@@ -4849,7 +4849,7 @@
         <v>3</v>
       </c>
       <c r="C262">
-        <v>71922.00999999999</v>
+        <v>75376.00999999999</v>
       </c>
       <c r="D262">
         <v>2025</v>
@@ -4866,7 +4866,7 @@
         <v>4</v>
       </c>
       <c r="C263">
-        <v>44567.87</v>
+        <v>48272.02</v>
       </c>
       <c r="D263">
         <v>2025</v>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
@@ -4815,7 +4815,7 @@
         <v>1</v>
       </c>
       <c r="C260">
-        <v>151943.76</v>
+        <v>168926.96</v>
       </c>
       <c r="D260">
         <v>2025</v>
@@ -4832,7 +4832,7 @@
         <v>2</v>
       </c>
       <c r="C261">
-        <v>51739.9</v>
+        <v>61697.9</v>
       </c>
       <c r="D261">
         <v>2025</v>
@@ -4849,7 +4849,7 @@
         <v>3</v>
       </c>
       <c r="C262">
-        <v>75376.00999999999</v>
+        <v>84457.00999999999</v>
       </c>
       <c r="D262">
         <v>2025</v>
@@ -4866,7 +4866,7 @@
         <v>4</v>
       </c>
       <c r="C263">
-        <v>48272.02</v>
+        <v>54811.77</v>
       </c>
       <c r="D263">
         <v>2025</v>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
@@ -4815,7 +4815,7 @@
         <v>1</v>
       </c>
       <c r="C260">
-        <v>168926.96</v>
+        <v>184673.56</v>
       </c>
       <c r="D260">
         <v>2025</v>
@@ -4832,7 +4832,7 @@
         <v>2</v>
       </c>
       <c r="C261">
-        <v>61697.9</v>
+        <v>64410.9</v>
       </c>
       <c r="D261">
         <v>2025</v>
@@ -4849,7 +4849,7 @@
         <v>3</v>
       </c>
       <c r="C262">
-        <v>84457.00999999999</v>
+        <v>90623.00999999999</v>
       </c>
       <c r="D262">
         <v>2025</v>
@@ -4866,7 +4866,7 @@
         <v>4</v>
       </c>
       <c r="C263">
-        <v>54811.77</v>
+        <v>57513.79</v>
       </c>
       <c r="D263">
         <v>2025</v>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
@@ -4815,7 +4815,7 @@
         <v>1</v>
       </c>
       <c r="C260">
-        <v>184673.56</v>
+        <v>191499.76</v>
       </c>
       <c r="D260">
         <v>2025</v>
@@ -4832,7 +4832,7 @@
         <v>2</v>
       </c>
       <c r="C261">
-        <v>64410.9</v>
+        <v>66225.89999999999</v>
       </c>
       <c r="D261">
         <v>2025</v>
@@ -4849,7 +4849,7 @@
         <v>3</v>
       </c>
       <c r="C262">
-        <v>90623.00999999999</v>
+        <v>96455.00999999999</v>
       </c>
       <c r="D262">
         <v>2025</v>
@@ -4866,7 +4866,7 @@
         <v>4</v>
       </c>
       <c r="C263">
-        <v>57513.79</v>
+        <v>59325.79</v>
       </c>
       <c r="D263">
         <v>2025</v>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
@@ -4815,7 +4815,7 @@
         <v>1</v>
       </c>
       <c r="C260">
-        <v>191499.76</v>
+        <v>198145.08</v>
       </c>
       <c r="D260">
         <v>2025</v>
@@ -4832,7 +4832,7 @@
         <v>2</v>
       </c>
       <c r="C261">
-        <v>66225.89999999999</v>
+        <v>68371.89999999999</v>
       </c>
       <c r="D261">
         <v>2025</v>
@@ -4849,7 +4849,7 @@
         <v>3</v>
       </c>
       <c r="C262">
-        <v>96455.00999999999</v>
+        <v>100803.01</v>
       </c>
       <c r="D262">
         <v>2025</v>
@@ -4866,7 +4866,7 @@
         <v>4</v>
       </c>
       <c r="C263">
-        <v>59325.79</v>
+        <v>60496.79</v>
       </c>
       <c r="D263">
         <v>2025</v>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
@@ -4815,7 +4815,7 @@
         <v>1</v>
       </c>
       <c r="C260">
-        <v>198145.08</v>
+        <v>205774.05</v>
       </c>
       <c r="D260">
         <v>2025</v>
@@ -4832,7 +4832,7 @@
         <v>2</v>
       </c>
       <c r="C261">
-        <v>68371.89999999999</v>
+        <v>71424.89999999999</v>
       </c>
       <c r="D261">
         <v>2025</v>
@@ -4849,7 +4849,7 @@
         <v>3</v>
       </c>
       <c r="C262">
-        <v>100803.01</v>
+        <v>104594.01</v>
       </c>
       <c r="D262">
         <v>2025</v>
@@ -4866,7 +4866,7 @@
         <v>4</v>
       </c>
       <c r="C263">
-        <v>60496.79</v>
+        <v>61543.79</v>
       </c>
       <c r="D263">
         <v>2025</v>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
@@ -4815,7 +4815,7 @@
         <v>1</v>
       </c>
       <c r="C260">
-        <v>205774.05</v>
+        <v>218289.35</v>
       </c>
       <c r="D260">
         <v>2025</v>
@@ -4832,7 +4832,7 @@
         <v>2</v>
       </c>
       <c r="C261">
-        <v>71424.89999999999</v>
+        <v>79084.89999999999</v>
       </c>
       <c r="D261">
         <v>2025</v>
@@ -4849,7 +4849,7 @@
         <v>3</v>
       </c>
       <c r="C262">
-        <v>104594.01</v>
+        <v>114769.91</v>
       </c>
       <c r="D262">
         <v>2025</v>
@@ -4866,7 +4866,7 @@
         <v>4</v>
       </c>
       <c r="C263">
-        <v>61543.79</v>
+        <v>65879.69</v>
       </c>
       <c r="D263">
         <v>2025</v>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
@@ -4815,7 +4815,7 @@
         <v>1</v>
       </c>
       <c r="C260">
-        <v>218289.35</v>
+        <v>233541.22</v>
       </c>
       <c r="D260">
         <v>2025</v>
@@ -4832,7 +4832,7 @@
         <v>2</v>
       </c>
       <c r="C261">
-        <v>79084.89999999999</v>
+        <v>81505.89999999999</v>
       </c>
       <c r="D261">
         <v>2025</v>
@@ -4849,7 +4849,7 @@
         <v>3</v>
       </c>
       <c r="C262">
-        <v>114769.91</v>
+        <v>119396.91</v>
       </c>
       <c r="D262">
         <v>2025</v>
@@ -4866,7 +4866,7 @@
         <v>4</v>
       </c>
       <c r="C263">
-        <v>65879.69</v>
+        <v>67961.78999999999</v>
       </c>
       <c r="D263">
         <v>2025</v>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
@@ -4815,7 +4815,7 @@
         <v>1</v>
       </c>
       <c r="C260">
-        <v>233541.22</v>
+        <v>243940.58</v>
       </c>
       <c r="D260">
         <v>2025</v>
@@ -4832,7 +4832,7 @@
         <v>2</v>
       </c>
       <c r="C261">
-        <v>81505.89999999999</v>
+        <v>84636.89999999999</v>
       </c>
       <c r="D261">
         <v>2025</v>
@@ -4849,7 +4849,7 @@
         <v>3</v>
       </c>
       <c r="C262">
-        <v>119396.91</v>
+        <v>124521.81</v>
       </c>
       <c r="D262">
         <v>2025</v>
@@ -4866,7 +4866,7 @@
         <v>4</v>
       </c>
       <c r="C263">
-        <v>67961.78999999999</v>
+        <v>69839.28999999999</v>
       </c>
       <c r="D263">
         <v>2025</v>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
@@ -4815,7 +4815,7 @@
         <v>1</v>
       </c>
       <c r="C260">
-        <v>243940.58</v>
+        <v>295945.38</v>
       </c>
       <c r="D260">
         <v>2025</v>
@@ -4832,7 +4832,7 @@
         <v>2</v>
       </c>
       <c r="C261">
-        <v>84636.89999999999</v>
+        <v>88013.89999999999</v>
       </c>
       <c r="D261">
         <v>2025</v>
@@ -4849,7 +4849,7 @@
         <v>3</v>
       </c>
       <c r="C262">
-        <v>124521.81</v>
+        <v>131571.81</v>
       </c>
       <c r="D262">
         <v>2025</v>
@@ -4866,7 +4866,7 @@
         <v>4</v>
       </c>
       <c r="C263">
-        <v>69839.28999999999</v>
+        <v>71854.28999999999</v>
       </c>
       <c r="D263">
         <v>2025</v>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
@@ -4815,7 +4815,7 @@
         <v>1</v>
       </c>
       <c r="C260">
-        <v>295945.38</v>
+        <v>309737.14</v>
       </c>
       <c r="D260">
         <v>2025</v>
@@ -4832,7 +4832,7 @@
         <v>2</v>
       </c>
       <c r="C261">
-        <v>88013.89999999999</v>
+        <v>90788.8</v>
       </c>
       <c r="D261">
         <v>2025</v>
@@ -4849,7 +4849,7 @@
         <v>3</v>
       </c>
       <c r="C262">
-        <v>131571.81</v>
+        <v>141201.81</v>
       </c>
       <c r="D262">
         <v>2025</v>
@@ -4866,7 +4866,7 @@
         <v>4</v>
       </c>
       <c r="C263">
-        <v>71854.28999999999</v>
+        <v>73082.28999999999</v>
       </c>
       <c r="D263">
         <v>2025</v>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="9">
   <si>
     <t>Mês</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E263"/>
+  <dimension ref="A1:E267"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4875,6 +4875,74 @@
         <v>8</v>
       </c>
     </row>
+    <row r="264" spans="1:5">
+      <c r="A264">
+        <v>8</v>
+      </c>
+      <c r="B264">
+        <v>1</v>
+      </c>
+      <c r="C264">
+        <v>10536</v>
+      </c>
+      <c r="D264">
+        <v>2025</v>
+      </c>
+      <c r="E264" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5">
+      <c r="A265">
+        <v>8</v>
+      </c>
+      <c r="B265">
+        <v>2</v>
+      </c>
+      <c r="C265">
+        <v>10676.75</v>
+      </c>
+      <c r="D265">
+        <v>2025</v>
+      </c>
+      <c r="E265" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5">
+      <c r="A266">
+        <v>8</v>
+      </c>
+      <c r="B266">
+        <v>3</v>
+      </c>
+      <c r="C266">
+        <v>16076</v>
+      </c>
+      <c r="D266">
+        <v>2025</v>
+      </c>
+      <c r="E266" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5">
+      <c r="A267">
+        <v>8</v>
+      </c>
+      <c r="B267">
+        <v>4</v>
+      </c>
+      <c r="C267">
+        <v>10218.55</v>
+      </c>
+      <c r="D267">
+        <v>2025</v>
+      </c>
+      <c r="E267" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
@@ -4883,7 +4883,7 @@
         <v>1</v>
       </c>
       <c r="C264">
-        <v>10536</v>
+        <v>25743.62</v>
       </c>
       <c r="D264">
         <v>2025</v>
@@ -4900,7 +4900,7 @@
         <v>2</v>
       </c>
       <c r="C265">
-        <v>10676.75</v>
+        <v>14878.75</v>
       </c>
       <c r="D265">
         <v>2025</v>
@@ -4917,7 +4917,7 @@
         <v>3</v>
       </c>
       <c r="C266">
-        <v>16076</v>
+        <v>19395.4</v>
       </c>
       <c r="D266">
         <v>2025</v>
@@ -4934,7 +4934,7 @@
         <v>4</v>
       </c>
       <c r="C267">
-        <v>10218.55</v>
+        <v>12398.55</v>
       </c>
       <c r="D267">
         <v>2025</v>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
@@ -4883,7 +4883,7 @@
         <v>1</v>
       </c>
       <c r="C264">
-        <v>25743.62</v>
+        <v>39866.69</v>
       </c>
       <c r="D264">
         <v>2025</v>
@@ -4900,7 +4900,7 @@
         <v>2</v>
       </c>
       <c r="C265">
-        <v>14878.75</v>
+        <v>16721.75</v>
       </c>
       <c r="D265">
         <v>2025</v>
@@ -4917,7 +4917,7 @@
         <v>3</v>
       </c>
       <c r="C266">
-        <v>19395.4</v>
+        <v>22931.3</v>
       </c>
       <c r="D266">
         <v>2025</v>
@@ -4934,7 +4934,7 @@
         <v>4</v>
       </c>
       <c r="C267">
-        <v>12398.55</v>
+        <v>13944.55</v>
       </c>
       <c r="D267">
         <v>2025</v>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
@@ -4883,7 +4883,7 @@
         <v>1</v>
       </c>
       <c r="C264">
-        <v>39866.69</v>
+        <v>45269.78</v>
       </c>
       <c r="D264">
         <v>2025</v>
@@ -4900,7 +4900,7 @@
         <v>2</v>
       </c>
       <c r="C265">
-        <v>16721.75</v>
+        <v>18008.75</v>
       </c>
       <c r="D265">
         <v>2025</v>
@@ -4917,7 +4917,7 @@
         <v>3</v>
       </c>
       <c r="C266">
-        <v>22931.3</v>
+        <v>30952.2</v>
       </c>
       <c r="D266">
         <v>2025</v>
@@ -4934,7 +4934,7 @@
         <v>4</v>
       </c>
       <c r="C267">
-        <v>13944.55</v>
+        <v>15767.55</v>
       </c>
       <c r="D267">
         <v>2025</v>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
@@ -4883,7 +4883,7 @@
         <v>1</v>
       </c>
       <c r="C264">
-        <v>45269.78</v>
+        <v>86631.73</v>
       </c>
       <c r="D264">
         <v>2025</v>
@@ -4900,7 +4900,7 @@
         <v>2</v>
       </c>
       <c r="C265">
-        <v>18008.75</v>
+        <v>30839.15</v>
       </c>
       <c r="D265">
         <v>2025</v>
@@ -4917,7 +4917,7 @@
         <v>3</v>
       </c>
       <c r="C266">
-        <v>30952.2</v>
+        <v>52385.2</v>
       </c>
       <c r="D266">
         <v>2025</v>
@@ -4934,7 +4934,7 @@
         <v>4</v>
       </c>
       <c r="C267">
-        <v>15767.55</v>
+        <v>25317.33</v>
       </c>
       <c r="D267">
         <v>2025</v>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
@@ -4883,7 +4883,7 @@
         <v>1</v>
       </c>
       <c r="C264">
-        <v>86631.73</v>
+        <v>106783.53</v>
       </c>
       <c r="D264">
         <v>2025</v>
@@ -4900,7 +4900,7 @@
         <v>2</v>
       </c>
       <c r="C265">
-        <v>30839.15</v>
+        <v>33510.15</v>
       </c>
       <c r="D265">
         <v>2025</v>
@@ -4917,7 +4917,7 @@
         <v>3</v>
       </c>
       <c r="C266">
-        <v>52385.2</v>
+        <v>56680.2</v>
       </c>
       <c r="D266">
         <v>2025</v>
@@ -4934,7 +4934,7 @@
         <v>4</v>
       </c>
       <c r="C267">
-        <v>25317.33</v>
+        <v>31041.33</v>
       </c>
       <c r="D267">
         <v>2025</v>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
@@ -4883,7 +4883,7 @@
         <v>1</v>
       </c>
       <c r="C264">
-        <v>106783.53</v>
+        <v>137509.08</v>
       </c>
       <c r="D264">
         <v>2025</v>
@@ -4900,7 +4900,7 @@
         <v>2</v>
       </c>
       <c r="C265">
-        <v>33510.15</v>
+        <v>37906.15</v>
       </c>
       <c r="D265">
         <v>2025</v>
@@ -4917,7 +4917,7 @@
         <v>3</v>
       </c>
       <c r="C266">
-        <v>56680.2</v>
+        <v>70117.39999999999</v>
       </c>
       <c r="D266">
         <v>2025</v>
@@ -4934,7 +4934,7 @@
         <v>4</v>
       </c>
       <c r="C267">
-        <v>31041.33</v>
+        <v>36032.36</v>
       </c>
       <c r="D267">
         <v>2025</v>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
@@ -4883,7 +4883,7 @@
         <v>1</v>
       </c>
       <c r="C264">
-        <v>137509.08</v>
+        <v>151838.88</v>
       </c>
       <c r="D264">
         <v>2025</v>
@@ -4900,7 +4900,7 @@
         <v>2</v>
       </c>
       <c r="C265">
-        <v>37906.15</v>
+        <v>40327.15</v>
       </c>
       <c r="D265">
         <v>2025</v>
@@ -4917,7 +4917,7 @@
         <v>3</v>
       </c>
       <c r="C266">
-        <v>70117.39999999999</v>
+        <v>72874.3</v>
       </c>
       <c r="D266">
         <v>2025</v>
@@ -4934,7 +4934,7 @@
         <v>4</v>
       </c>
       <c r="C267">
-        <v>36032.36</v>
+        <v>37758.62</v>
       </c>
       <c r="D267">
         <v>2025</v>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
@@ -4883,7 +4883,7 @@
         <v>1</v>
       </c>
       <c r="C264">
-        <v>151838.88</v>
+        <v>189043.58</v>
       </c>
       <c r="D264">
         <v>2025</v>
@@ -4900,7 +4900,7 @@
         <v>2</v>
       </c>
       <c r="C265">
-        <v>40327.15</v>
+        <v>47795.05</v>
       </c>
       <c r="D265">
         <v>2025</v>
@@ -4917,7 +4917,7 @@
         <v>3</v>
       </c>
       <c r="C266">
-        <v>72874.3</v>
+        <v>80649.3</v>
       </c>
       <c r="D266">
         <v>2025</v>
@@ -4934,7 +4934,7 @@
         <v>4</v>
       </c>
       <c r="C267">
-        <v>37758.62</v>
+        <v>53112.32</v>
       </c>
       <c r="D267">
         <v>2025</v>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
@@ -4883,7 +4883,7 @@
         <v>1</v>
       </c>
       <c r="C264">
-        <v>189043.58</v>
+        <v>233545.67</v>
       </c>
       <c r="D264">
         <v>2025</v>
@@ -4900,7 +4900,7 @@
         <v>2</v>
       </c>
       <c r="C265">
-        <v>47795.05</v>
+        <v>49004.05</v>
       </c>
       <c r="D265">
         <v>2025</v>
@@ -4917,7 +4917,7 @@
         <v>3</v>
       </c>
       <c r="C266">
-        <v>80649.3</v>
+        <v>84387.3</v>
       </c>
       <c r="D266">
         <v>2025</v>
@@ -4934,7 +4934,7 @@
         <v>4</v>
       </c>
       <c r="C267">
-        <v>53112.32</v>
+        <v>55367.33</v>
       </c>
       <c r="D267">
         <v>2025</v>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
@@ -4883,7 +4883,7 @@
         <v>1</v>
       </c>
       <c r="C264">
-        <v>233545.67</v>
+        <v>242762.19</v>
       </c>
       <c r="D264">
         <v>2025</v>
@@ -4900,7 +4900,7 @@
         <v>2</v>
       </c>
       <c r="C265">
-        <v>49004.05</v>
+        <v>50507.05</v>
       </c>
       <c r="D265">
         <v>2025</v>
@@ -4917,7 +4917,7 @@
         <v>3</v>
       </c>
       <c r="C266">
-        <v>84387.3</v>
+        <v>88065.3</v>
       </c>
       <c r="D266">
         <v>2025</v>
@@ -4934,7 +4934,7 @@
         <v>4</v>
       </c>
       <c r="C267">
-        <v>55367.33</v>
+        <v>56517.33</v>
       </c>
       <c r="D267">
         <v>2025</v>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal_lojas.xlsx
@@ -4883,7 +4883,7 @@
         <v>1</v>
       </c>
       <c r="C264">
-        <v>242762.19</v>
+        <v>265448.31</v>
       </c>
       <c r="D264">
         <v>2025</v>
@@ -4900,7 +4900,7 @@
         <v>2</v>
       </c>
       <c r="C265">
-        <v>50507.05</v>
+        <v>55572.05</v>
       </c>
       <c r="D265">
         <v>2025</v>
@@ -4917,7 +4917,7 @@
         <v>3</v>
       </c>
       <c r="C266">
-        <v>88065.3</v>
+        <v>97583.2</v>
       </c>
       <c r="D266">
         <v>2025</v>
@@ -4934,7 +4934,7 @@
         <v>4</v>
       </c>
       <c r="C267">
-        <v>56517.33</v>
+        <v>64891.33</v>
       </c>
       <c r="D267">
         <v>2025</v>
